--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="365">
   <si>
     <t>ID</t>
   </si>
@@ -214,16 +214,10 @@
     <t>TC-04</t>
   </si>
   <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел Main</t>
-  </si>
-  <si>
     <t>Блока три полосочки в личном кабинете отображение соответствующих страниц Main</t>
   </si>
   <si>
     <t xml:space="preserve">Пользователь авторизован. Открыта главная страница личного кабинета. Нажато изображение три полосочки </t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News</t>
   </si>
   <si>
     <t>Блока три полосочки в личном кабинете отображение соответствующих страниц News</t>
@@ -489,9 +483,6 @@
     <t>TC-08</t>
   </si>
   <si>
-    <t>Личчный кабинет. Раздел выход из личного кабинета (изображение человечка)</t>
-  </si>
-  <si>
     <t>1 Нажать значек изображение человечка</t>
   </si>
   <si>
@@ -589,9 +580,6 @@
   </si>
   <si>
     <t>TC-09</t>
-  </si>
-  <si>
-    <t>Личный кабинет. Раздел About</t>
   </si>
   <si>
     <t>Пользователь авторизован. Нажата кнопка три полосочки</t>
@@ -705,30 +693,6 @@
     <t xml:space="preserve">2 Нажать на поле Category </t>
   </si>
   <si>
-    <t>Фильтрация. Раздел News. Валидация поля Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личный кабинет. Блок три полосочки. Раздел News. Валидация поля Category </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личный кабинет. Блок три полосочки. Раздел News. Валидация поля Title </t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Валидация поля Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личный кабинет. Блок три полосочки. Раздел News. Валидация поля Publication date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личный кабинет. Блок три полосочки. Раздел News. Валидация поля Time </t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Валидация поля hour</t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Валидация поля minute</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1  </t>
     </r>
@@ -852,15 +816,6 @@
     <t>4 Нажать на ползунок Active</t>
   </si>
   <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Валидация кнопок</t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Валидация значка корзины</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Валидация поля Category </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1 </t>
     </r>
@@ -998,30 +953,6 @@
     </r>
   </si>
   <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Валидация поля Title</t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Валидация поля Description</t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Валидация поля Publication date</t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Валидация поля Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Валидация поля hour </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Валидация поля minute </t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Валидация ползунок Active</t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Валидация с пустыми полями</t>
-  </si>
-  <si>
     <t>1 Заполнить все пустые поля данными</t>
   </si>
   <si>
@@ -1041,9 +972,6 @@
     </r>
   </si>
   <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Сохранение записи с не активным ползунком</t>
-  </si>
-  <si>
     <t>2 Нажать на ползунок выключения (влево)</t>
   </si>
   <si>
@@ -1059,15 +987,9 @@
     <t>6 Нажать на кнопку OK</t>
   </si>
   <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Сохранение записи с  активным ползунком</t>
-  </si>
-  <si>
     <t>2 Нажать на ползунок включения (вправо)</t>
   </si>
   <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Значек карандаш. Валидация прокрутки</t>
-  </si>
-  <si>
     <t>Прокрутка работает. Ползунок движется вверх вниз записи просматриваются</t>
   </si>
   <si>
@@ -1101,9 +1023,6 @@
     <t>Появляется курсор. Поле подсвечивается цветом</t>
   </si>
   <si>
-    <t>Меню Filter news.  Календарь раздела News. Валидация даты новостей</t>
-  </si>
-  <si>
     <t>TC-10</t>
   </si>
   <si>
@@ -1188,16 +1107,7 @@
     <t>1 Нажать кнопку Main</t>
   </si>
   <si>
-    <t>Авторизация. Валидация правописания</t>
-  </si>
-  <si>
     <t xml:space="preserve">Авторизация пользователя с невалидными данными поля Login </t>
-  </si>
-  <si>
-    <t>Авторизация пользователя с невалидными данными. Валидация поля Password</t>
-  </si>
-  <si>
-    <t>Авторизация пользователя. Валидация полей Login и Password</t>
   </si>
   <si>
     <r>
@@ -1334,9 +1244,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Личный кабинет</t>
-  </si>
-  <si>
     <t>1 Нажать на  поле Publication date</t>
   </si>
   <si>
@@ -1377,9 +1284,6 @@
     <t>Появляется описание цитаты</t>
   </si>
   <si>
-    <t>Личный кабинет. Раздел Love is all (изображение бабочки)</t>
-  </si>
-  <si>
     <t>Пользователь авторизован. Открыта главная Love is all</t>
   </si>
   <si>
@@ -1441,9 +1345,6 @@
   </si>
   <si>
     <t>Кнопка нажимается. Данные успешно сохраняются</t>
-  </si>
-  <si>
-    <t>Личный кабинет. Блок три полосочки. Раздел News. Создание новости</t>
   </si>
   <si>
     <t>ТС-20</t>
@@ -1465,13 +1366,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Личный кабинет. Блок три полосочки. Раздел News. Creating News. Валидация пустое поле </t>
-  </si>
-  <si>
     <t>ТС-35</t>
-  </si>
-  <si>
-    <t>TC-36</t>
   </si>
   <si>
     <t>TC-37</t>
@@ -1585,6 +1480,132 @@
       </rPr>
       <t>Нажать на изображение бабочки</t>
     </r>
+  </si>
+  <si>
+    <t>ТС-36</t>
+  </si>
+  <si>
+    <t>Цитата выделяется</t>
+  </si>
+  <si>
+    <t>1 Нажать на любую цитату</t>
+  </si>
+  <si>
+    <t>2 Прокрутить вниз экран</t>
+  </si>
+  <si>
+    <t>Цитаты прокручиваются, всего отображается 8</t>
+  </si>
+  <si>
+    <t>TC-38</t>
+  </si>
+  <si>
+    <t>Навигация по личному кабинету в приложении "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t>Навигация по разделу Main</t>
+  </si>
+  <si>
+    <t>Навигация по разделу News</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация фильтрации по полю Category раздела News</t>
+  </si>
+  <si>
+    <t>Валидация даты новостей в календаре раздела News</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация поля Category в форме добавления новости </t>
+  </si>
+  <si>
+    <t>Валидация поля Title в форме добавления новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация поля Description в форме добавления новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация поля Publication date в форме добавления новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация поля Time в форме добавления новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация поля hour в форме добавления новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация поля minute в форме добвления новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация пустое поле в форме добавления новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация кнопок раздела News</t>
+  </si>
+  <si>
+    <t>Создание новости в форме Creating News раздела News</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация значка корзины раздела News</t>
+  </si>
+  <si>
+    <t>Валидация поля Category в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация поля Title в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация поля Description в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация поля Publication date в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация поля Time в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация поля hour в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация поля minute в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация с пустыми полями в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация ползунок Active в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация сохранение записи с не активным ползунком в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация сохранение записи с  активным ползунком в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Валидация прокрутки в форме редактирования (значек карандаша) раздела News</t>
+  </si>
+  <si>
+    <t>Навигация по разделу Love is all (изображение бабочки)</t>
+  </si>
+  <si>
+    <t>Валидация открытия описания цитат раздела Love is all (изображение бабочки)</t>
+  </si>
+  <si>
+    <t>Валидация колличества цитат в разделе Love is all (изображение бабочки)</t>
+  </si>
+  <si>
+    <t>Навигация по разделу About</t>
+  </si>
+  <si>
+    <t>Валидация выхода из личного кабинета (изображение человечка)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация полей Login и Password при авторизации пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Валидация правописания в разделе авторизация</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя с невалидными данными поля Password</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -2678,11 +2699,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2934,9 +2968,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3018,6 +3049,44 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3099,6 +3168,72 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3111,25 +3246,64 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3146,87 +3320,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3236,12 +3329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3281,32 +3368,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3608,11 +3672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J250"/>
+  <dimension ref="A1:J256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E249" sqref="E249:E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,24 +3716,24 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="178" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176" t="s">
+      <c r="B2" s="186" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="181" t="s">
+      <c r="E2" s="189" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -3680,30 +3744,30 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="182"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="164"/>
       <c r="F3" s="15" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="12"/>
       <c r="I3" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="182"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
@@ -3712,15 +3776,15 @@
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="182"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="18" t="s">
         <v>11</v>
       </c>
@@ -3729,15 +3793,15 @@
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="182"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="164"/>
       <c r="F6" s="18" t="s">
         <v>10</v>
       </c>
@@ -3746,15 +3810,15 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="177"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="183"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="20" t="s">
         <v>12</v>
       </c>
@@ -3763,149 +3827,149 @@
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="184" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185" t="s">
+      <c r="B8" s="190" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="185" t="s">
-        <v>179</v>
+      <c r="E8" s="191" t="s">
+        <v>175</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="25" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="143"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
       <c r="F10" s="25" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="143"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="25" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="143"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
       <c r="F12" s="25" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
       <c r="F13" s="25" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="155" t="s">
-        <v>287</v>
+      <c r="B14" s="162" t="s">
+        <v>259</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="186" t="s">
-        <v>179</v>
+      <c r="E14" s="163" t="s">
+        <v>175</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30"/>
       <c r="I14" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="153"/>
-      <c r="B15" s="153"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="182"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="164"/>
       <c r="F15" s="18" t="s">
         <v>22</v>
       </c>
@@ -3914,144 +3978,144 @@
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="153"/>
-      <c r="B16" s="153"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="182"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="164"/>
       <c r="F16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="100" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
-      <c r="B17" s="153"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="182"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="164"/>
       <c r="F17" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="153"/>
-      <c r="B18" s="153"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="182"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="164"/>
       <c r="F18" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
-      <c r="B19" s="153"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="182"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="164"/>
       <c r="F19" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="153"/>
-      <c r="B20" s="153"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="182"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="164"/>
       <c r="F20" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="183"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="165"/>
       <c r="F21" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="102" t="s">
+      <c r="G21" s="101" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I21" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="166" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="167" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="166" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="168" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="34" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="188" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="187" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="189" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>180</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="153"/>
-      <c r="B23" s="153"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="182"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="164"/>
       <c r="F23" s="39" t="s">
         <v>22</v>
       </c>
@@ -4060,250 +4124,250 @@
       </c>
       <c r="H23" s="36"/>
       <c r="I23" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="153"/>
-      <c r="B24" s="153"/>
+      <c r="A24" s="160"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="182"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="164"/>
       <c r="F24" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="101" t="s">
+      <c r="G24" s="100" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="153"/>
-      <c r="B25" s="153"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="182"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="164"/>
       <c r="F25" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="153"/>
-      <c r="B26" s="153"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="182"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="164"/>
       <c r="F26" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="36"/>
       <c r="I26" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="153"/>
-      <c r="B27" s="153"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="182"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="164"/>
       <c r="F27" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="153"/>
-      <c r="B28" s="153"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="182"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="164"/>
       <c r="F28" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H28" s="36"/>
       <c r="I28" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="177"/>
-      <c r="B29" s="177"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="161"/>
       <c r="C29" s="38"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="183"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="165"/>
       <c r="F29" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="G29" s="102" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="36" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="214" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="155" t="s">
-        <v>289</v>
+      <c r="A30" s="192" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="162" t="s">
+        <v>362</v>
       </c>
       <c r="C30" s="44"/>
-      <c r="D30" s="152" t="s">
+      <c r="D30" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="156" t="s">
-        <v>179</v>
+      <c r="E30" s="194" t="s">
+        <v>175</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="12"/>
       <c r="I30" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="215"/>
-      <c r="B31" s="167"/>
+      <c r="A31" s="193"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="173"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="179"/>
       <c r="F31" s="47" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="215"/>
-      <c r="B32" s="167"/>
+      <c r="A32" s="193"/>
+      <c r="B32" s="173"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="173"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="179"/>
       <c r="F32" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="215"/>
-      <c r="B33" s="167"/>
+      <c r="A33" s="193"/>
+      <c r="B33" s="173"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="173"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="179"/>
       <c r="F33" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="102" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="215"/>
-      <c r="B34" s="167"/>
+      <c r="A34" s="193"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="173"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="179"/>
       <c r="F34" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G34" s="46"/>
       <c r="H34" s="12"/>
       <c r="I34" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="215"/>
-      <c r="B35" s="167"/>
+      <c r="A35" s="193"/>
+      <c r="B35" s="173"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="173"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="179"/>
       <c r="F35" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="215"/>
-      <c r="B36" s="167"/>
+      <c r="A36" s="193"/>
+      <c r="B36" s="173"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="173"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="179"/>
       <c r="F36" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="215"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="173"/>
+      <c r="A37" s="193"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="179"/>
       <c r="F37" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="104" t="s">
         <v>32</v>
       </c>
       <c r="H37" s="22" t="s">
@@ -4312,98 +4376,98 @@
       <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="215"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="173"/>
+      <c r="A38" s="193"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="179"/>
       <c r="F38" s="23" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="59"/>
       <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="215"/>
-      <c r="B39" s="167"/>
+      <c r="A39" s="193"/>
+      <c r="B39" s="173"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="173"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="179"/>
       <c r="F39" s="23" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="216"/>
+      <c r="H39" s="127"/>
       <c r="I39" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="215"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="173"/>
+      <c r="A40" s="193"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="179"/>
       <c r="F40" s="23" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="216"/>
+      <c r="H40" s="127"/>
       <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="215"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="173"/>
+      <c r="A41" s="193"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="179"/>
       <c r="F41" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="G41" s="107" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="216"/>
+      <c r="H41" s="127"/>
       <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="146" t="s">
-        <v>304</v>
-      </c>
-      <c r="C42" s="148" t="s">
+      <c r="A42" s="196" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="181" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="148" t="s">
+      <c r="D42" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="193" t="s">
+      <c r="E42" s="201" t="s">
         <v>53</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="151"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="194"/>
+      <c r="A43" s="197"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="202"/>
       <c r="F43" s="25" t="s">
         <v>36</v>
       </c>
@@ -4412,15 +4476,15 @@
       </c>
       <c r="H43" s="36"/>
       <c r="I43" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="151"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="194"/>
+      <c r="A44" s="197"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="202"/>
       <c r="F44" s="25" t="s">
         <v>37</v>
       </c>
@@ -4429,15 +4493,15 @@
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="151"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="194"/>
+      <c r="A45" s="197"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="202"/>
       <c r="F45" s="25" t="s">
         <v>38</v>
       </c>
@@ -4446,15 +4510,15 @@
       </c>
       <c r="H45" s="36"/>
       <c r="I45" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A46" s="151"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="194"/>
+      <c r="A46" s="197"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="202"/>
       <c r="F46" s="25" t="s">
         <v>39</v>
       </c>
@@ -4463,15 +4527,15 @@
       </c>
       <c r="H46" s="36"/>
       <c r="I46" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="151"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="149"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="194"/>
+      <c r="A47" s="197"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="202"/>
       <c r="F47" s="25" t="s">
         <v>40</v>
       </c>
@@ -4480,15 +4544,15 @@
       </c>
       <c r="H47" s="36"/>
       <c r="I47" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="151"/>
-      <c r="B48" s="147"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="149"/>
-      <c r="E48" s="194"/>
+      <c r="A48" s="197"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="202"/>
       <c r="F48" s="25" t="s">
         <v>42</v>
       </c>
@@ -4497,15 +4561,15 @@
       </c>
       <c r="H48" s="36"/>
       <c r="I48" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="151"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="149"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="194"/>
+      <c r="A49" s="197"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="202"/>
       <c r="F49" s="25" t="s">
         <v>48</v>
       </c>
@@ -4514,15 +4578,15 @@
       </c>
       <c r="H49" s="36"/>
       <c r="I49" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="151"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="149"/>
-      <c r="D50" s="149"/>
-      <c r="E50" s="194"/>
+      <c r="A50" s="197"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="202"/>
       <c r="F50" s="25" t="s">
         <v>49</v>
       </c>
@@ -4531,80 +4595,80 @@
       </c>
       <c r="H50" s="36"/>
       <c r="I50" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="163" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="166" t="s">
+      <c r="A51" s="169" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="172" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="169" t="s">
+      <c r="D51" s="175" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="169" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="172" t="s">
-        <v>63</v>
-      </c>
       <c r="F51" s="49" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="G51" s="46" t="s">
         <v>54</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="164"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="173"/>
+      <c r="A52" s="170"/>
+      <c r="B52" s="173"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="179"/>
       <c r="F52" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G52" s="101" t="s">
+      <c r="G52" s="100" t="s">
         <v>56</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>57</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="164"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="173"/>
+      <c r="A53" s="170"/>
+      <c r="B53" s="173"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="179"/>
       <c r="F53" s="23" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>58</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="164"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="173"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="173"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="179"/>
       <c r="F54" s="55" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>59</v>
@@ -4613,237 +4677,237 @@
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="164"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="173"/>
+      <c r="A55" s="170"/>
+      <c r="B55" s="173"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="179"/>
       <c r="F55" s="23" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="H55" s="70"/>
       <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="164"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="217" t="s">
-        <v>354</v>
+      <c r="A56" s="170"/>
+      <c r="B56" s="173"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="176"/>
+      <c r="E56" s="179"/>
+      <c r="F56" s="128" t="s">
+        <v>319</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="H56" s="70"/>
       <c r="I56" s="17"/>
     </row>
     <row r="57" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="171"/>
-      <c r="D57" s="171"/>
-      <c r="E57" s="175"/>
+      <c r="A57" s="171"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="195"/>
       <c r="F57" s="23" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="H57" s="70"/>
       <c r="I57" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="148" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="146" t="s">
+      <c r="A58" s="183" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="181" t="s">
+        <v>331</v>
+      </c>
+      <c r="C58" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="211" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="C58" s="148" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="190" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="53" t="s">
-        <v>66</v>
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="153"/>
-      <c r="B59" s="153"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="191"/>
+      <c r="A59" s="160"/>
+      <c r="B59" s="160"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="212"/>
       <c r="F59" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H59" s="36"/>
       <c r="I59" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="153"/>
-      <c r="B60" s="153"/>
-      <c r="C60" s="153"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="191"/>
+      <c r="A60" s="160"/>
+      <c r="B60" s="160"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="212"/>
       <c r="F60" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="161"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="213"/>
+      <c r="F61" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="162" t="s">
+        <v>332</v>
+      </c>
+      <c r="C62" s="44"/>
+      <c r="D62" s="159" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="194" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G62" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="177"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
-      <c r="E61" s="192"/>
-      <c r="F61" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="H61" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" s="155" t="s">
-        <v>190</v>
-      </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="152" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="156" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="G62" s="105" t="s">
-        <v>71</v>
-      </c>
       <c r="H62" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="153"/>
-      <c r="B63" s="153"/>
+      <c r="A63" s="160"/>
+      <c r="B63" s="160"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="157"/>
+      <c r="D63" s="160"/>
+      <c r="E63" s="205"/>
       <c r="F63" s="56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="153"/>
-      <c r="B64" s="153"/>
+      <c r="A64" s="160"/>
+      <c r="B64" s="160"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="153"/>
-      <c r="E64" s="157"/>
+      <c r="D64" s="160"/>
+      <c r="E64" s="205"/>
       <c r="F64" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" s="101" t="s">
         <v>73</v>
       </c>
+      <c r="G64" s="100" t="s">
+        <v>71</v>
+      </c>
       <c r="H64" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="160"/>
+      <c r="B65" s="160"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="205"/>
+      <c r="F65" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I64" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="153"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="153"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="G65" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="153"/>
-      <c r="B66" s="153"/>
+      <c r="A66" s="160"/>
+      <c r="B66" s="160"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="153"/>
-      <c r="E66" s="157"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="205"/>
       <c r="F66" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G66" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="153"/>
-      <c r="B67" s="153"/>
+      <c r="A67" s="160"/>
+      <c r="B67" s="160"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="157"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="205"/>
       <c r="F67" s="18" t="s">
         <v>26</v>
       </c>
@@ -4852,15 +4916,15 @@
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="153"/>
-      <c r="B68" s="153"/>
+      <c r="A68" s="160"/>
+      <c r="B68" s="160"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="153"/>
-      <c r="E68" s="157"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="205"/>
       <c r="F68" s="18" t="s">
         <v>27</v>
       </c>
@@ -4869,345 +4933,345 @@
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="153"/>
-      <c r="B69" s="153"/>
+      <c r="A69" s="160"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="153"/>
-      <c r="E69" s="157"/>
+      <c r="D69" s="160"/>
+      <c r="E69" s="205"/>
       <c r="F69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="106" t="s">
+      <c r="G69" s="105" t="s">
         <v>19</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="153"/>
-      <c r="B70" s="153"/>
+      <c r="A70" s="160"/>
+      <c r="B70" s="160"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="153"/>
-      <c r="E70" s="157"/>
+      <c r="D70" s="160"/>
+      <c r="E70" s="205"/>
       <c r="F70" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="160"/>
+      <c r="B71" s="160"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="160"/>
+      <c r="E71" s="205"/>
+      <c r="F71" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G70" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="153"/>
-      <c r="B71" s="153"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="153"/>
-      <c r="E71" s="157"/>
-      <c r="F71" s="18" t="s">
-        <v>80</v>
-      </c>
       <c r="G71" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="153"/>
-      <c r="B72" s="153"/>
+      <c r="A72" s="160"/>
+      <c r="B72" s="160"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="153"/>
-      <c r="E72" s="157"/>
+      <c r="D72" s="160"/>
+      <c r="E72" s="205"/>
       <c r="F72" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="154"/>
-      <c r="B73" s="154"/>
+      <c r="A73" s="204"/>
+      <c r="B73" s="204"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="158"/>
+      <c r="D73" s="204"/>
+      <c r="E73" s="206"/>
       <c r="F73" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="150" t="s">
-        <v>258</v>
-      </c>
-      <c r="B74" s="146" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="148"/>
-      <c r="D74" s="148" t="s">
+      <c r="A74" s="196" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="181" t="s">
+        <v>333</v>
+      </c>
+      <c r="C74" s="183"/>
+      <c r="D74" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="193" t="s">
-        <v>210</v>
+      <c r="E74" s="201" t="s">
+        <v>198</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H74" s="36"/>
       <c r="I74" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="151"/>
-      <c r="B75" s="147"/>
-      <c r="C75" s="149"/>
-      <c r="D75" s="149"/>
-      <c r="E75" s="194"/>
+      <c r="A75" s="197"/>
+      <c r="B75" s="182"/>
+      <c r="C75" s="184"/>
+      <c r="D75" s="184"/>
+      <c r="E75" s="202"/>
       <c r="F75" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G75" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H75" s="36"/>
       <c r="I75" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A76" s="151"/>
-      <c r="B76" s="147"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="149"/>
-      <c r="E76" s="194"/>
+      <c r="A76" s="197"/>
+      <c r="B76" s="182"/>
+      <c r="C76" s="184"/>
+      <c r="D76" s="184"/>
+      <c r="E76" s="202"/>
       <c r="F76" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G76" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H76" s="36"/>
       <c r="I76" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="151"/>
-      <c r="B77" s="147"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
-      <c r="E77" s="194"/>
+      <c r="A77" s="197"/>
+      <c r="B77" s="182"/>
+      <c r="C77" s="184"/>
+      <c r="D77" s="184"/>
+      <c r="E77" s="202"/>
       <c r="F77" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G77" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H77" s="36"/>
       <c r="I77" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="151"/>
-      <c r="B78" s="147"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="149"/>
-      <c r="E78" s="194"/>
+      <c r="A78" s="197"/>
+      <c r="B78" s="182"/>
+      <c r="C78" s="184"/>
+      <c r="D78" s="184"/>
+      <c r="E78" s="202"/>
       <c r="F78" s="57" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H78" s="36"/>
       <c r="I78" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="151"/>
-      <c r="B79" s="147"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="149"/>
-      <c r="E79" s="194"/>
+      <c r="A79" s="197"/>
+      <c r="B79" s="182"/>
+      <c r="C79" s="184"/>
+      <c r="D79" s="184"/>
+      <c r="E79" s="202"/>
       <c r="F79" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G79" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H79" s="36"/>
       <c r="I79" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A80" s="151"/>
-      <c r="B80" s="147"/>
-      <c r="C80" s="149"/>
-      <c r="D80" s="149"/>
-      <c r="E80" s="194"/>
+      <c r="A80" s="197"/>
+      <c r="B80" s="182"/>
+      <c r="C80" s="184"/>
+      <c r="D80" s="184"/>
+      <c r="E80" s="202"/>
       <c r="F80" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G80" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H80" s="36"/>
       <c r="I80" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="151"/>
-      <c r="B81" s="147"/>
-      <c r="C81" s="149"/>
-      <c r="D81" s="149"/>
-      <c r="E81" s="194"/>
+      <c r="A81" s="197"/>
+      <c r="B81" s="182"/>
+      <c r="C81" s="184"/>
+      <c r="D81" s="184"/>
+      <c r="E81" s="202"/>
       <c r="F81" s="54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H81" s="58"/>
       <c r="I81" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="159" t="s">
-        <v>259</v>
-      </c>
-      <c r="B82" s="160" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="159"/>
-      <c r="D82" s="159" t="s">
+      <c r="A82" s="207" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="208" t="s">
+        <v>334</v>
+      </c>
+      <c r="C82" s="207"/>
+      <c r="D82" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="E82" s="159" t="s">
-        <v>211</v>
+      <c r="E82" s="207" t="s">
+        <v>199</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G82" s="107" t="s">
         <v>104</v>
       </c>
+      <c r="G82" s="106" t="s">
+        <v>102</v>
+      </c>
       <c r="H82" s="59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="143"/>
-      <c r="B83" s="161"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="143"/>
+      <c r="A83" s="156"/>
+      <c r="B83" s="209"/>
+      <c r="C83" s="156"/>
+      <c r="D83" s="156"/>
+      <c r="E83" s="156"/>
       <c r="F83" s="50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H83" s="59"/>
       <c r="I83" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="143"/>
-      <c r="B84" s="161"/>
-      <c r="C84" s="143"/>
-      <c r="D84" s="143"/>
-      <c r="E84" s="143"/>
+      <c r="A84" s="156"/>
+      <c r="B84" s="209"/>
+      <c r="C84" s="156"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="156"/>
       <c r="F84" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G84" s="108" t="s">
         <v>73</v>
       </c>
+      <c r="G84" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="H84" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="156"/>
+      <c r="B85" s="209"/>
+      <c r="C85" s="156"/>
+      <c r="D85" s="156"/>
+      <c r="E85" s="156"/>
+      <c r="F85" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I84" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="143"/>
-      <c r="B85" s="161"/>
-      <c r="C85" s="143"/>
-      <c r="D85" s="143"/>
-      <c r="E85" s="143"/>
-      <c r="F85" s="23" t="s">
-        <v>76</v>
-      </c>
       <c r="G85" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H85" s="59"/>
       <c r="I85" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="143"/>
-      <c r="B86" s="161"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
+      <c r="A86" s="156"/>
+      <c r="B86" s="209"/>
+      <c r="C86" s="156"/>
+      <c r="D86" s="156"/>
+      <c r="E86" s="156"/>
       <c r="F86" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G86" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H86" s="59"/>
       <c r="I86" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="143"/>
-      <c r="B87" s="161"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
+      <c r="A87" s="156"/>
+      <c r="B87" s="209"/>
+      <c r="C87" s="156"/>
+      <c r="D87" s="156"/>
+      <c r="E87" s="156"/>
       <c r="F87" s="23" t="s">
         <v>26</v>
       </c>
@@ -5216,15 +5280,15 @@
       </c>
       <c r="H87" s="59"/>
       <c r="I87" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="143"/>
-      <c r="B88" s="161"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
+      <c r="A88" s="156"/>
+      <c r="B88" s="209"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="156"/>
       <c r="F88" s="23" t="s">
         <v>27</v>
       </c>
@@ -5233,15 +5297,15 @@
       </c>
       <c r="H88" s="59"/>
       <c r="I88" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="143"/>
-      <c r="B89" s="161"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="143"/>
-      <c r="E89" s="143"/>
+      <c r="A89" s="156"/>
+      <c r="B89" s="209"/>
+      <c r="C89" s="156"/>
+      <c r="D89" s="156"/>
+      <c r="E89" s="156"/>
       <c r="F89" s="23" t="s">
         <v>30</v>
       </c>
@@ -5250,127 +5314,127 @@
       </c>
       <c r="H89" s="59"/>
       <c r="I89" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="143"/>
-      <c r="B90" s="161"/>
-      <c r="C90" s="143"/>
-      <c r="D90" s="143"/>
-      <c r="E90" s="143"/>
+      <c r="A90" s="156"/>
+      <c r="B90" s="209"/>
+      <c r="C90" s="156"/>
+      <c r="D90" s="156"/>
+      <c r="E90" s="156"/>
       <c r="F90" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H90" s="59"/>
       <c r="I90" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="144"/>
-      <c r="B91" s="162"/>
-      <c r="C91" s="144"/>
-      <c r="D91" s="144"/>
-      <c r="E91" s="144"/>
+      <c r="A91" s="157"/>
+      <c r="B91" s="210"/>
+      <c r="C91" s="157"/>
+      <c r="D91" s="157"/>
+      <c r="E91" s="157"/>
       <c r="F91" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H91" s="59"/>
       <c r="I91" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="196" t="s">
-        <v>260</v>
-      </c>
-      <c r="B92" s="199" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" s="196"/>
-      <c r="D92" s="195" t="s">
+      <c r="A92" s="215" t="s">
+        <v>233</v>
+      </c>
+      <c r="B92" s="218" t="s">
+        <v>335</v>
+      </c>
+      <c r="C92" s="215"/>
+      <c r="D92" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="E92" s="195" t="s">
-        <v>211</v>
+      <c r="E92" s="214" t="s">
+        <v>199</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H92" s="26"/>
       <c r="I92" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="143"/>
-      <c r="B93" s="143"/>
-      <c r="C93" s="143"/>
-      <c r="D93" s="143"/>
-      <c r="E93" s="143"/>
+      <c r="A93" s="156"/>
+      <c r="B93" s="156"/>
+      <c r="C93" s="156"/>
+      <c r="D93" s="156"/>
+      <c r="E93" s="156"/>
       <c r="F93" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G93" s="108" t="s">
         <v>73</v>
       </c>
+      <c r="G93" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="H93" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="156"/>
+      <c r="B94" s="156"/>
+      <c r="C94" s="156"/>
+      <c r="D94" s="156"/>
+      <c r="E94" s="156"/>
+      <c r="F94" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I93" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="143"/>
-      <c r="B94" s="143"/>
-      <c r="C94" s="143"/>
-      <c r="D94" s="143"/>
-      <c r="E94" s="143"/>
-      <c r="F94" s="25" t="s">
-        <v>76</v>
-      </c>
       <c r="G94" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H94" s="26"/>
       <c r="I94" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="143"/>
-      <c r="B95" s="143"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="143"/>
-      <c r="E95" s="143"/>
+      <c r="A95" s="156"/>
+      <c r="B95" s="156"/>
+      <c r="C95" s="156"/>
+      <c r="D95" s="156"/>
+      <c r="E95" s="156"/>
       <c r="F95" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G95" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H95" s="26"/>
       <c r="I95" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="143"/>
-      <c r="B96" s="143"/>
-      <c r="C96" s="143"/>
-      <c r="D96" s="143"/>
-      <c r="E96" s="143"/>
+      <c r="A96" s="156"/>
+      <c r="B96" s="156"/>
+      <c r="C96" s="156"/>
+      <c r="D96" s="156"/>
+      <c r="E96" s="156"/>
       <c r="F96" s="25" t="s">
         <v>26</v>
       </c>
@@ -5379,15 +5443,15 @@
       </c>
       <c r="H96" s="26"/>
       <c r="I96" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="143"/>
-      <c r="B97" s="143"/>
-      <c r="C97" s="143"/>
-      <c r="D97" s="143"/>
-      <c r="E97" s="143"/>
+      <c r="A97" s="156"/>
+      <c r="B97" s="156"/>
+      <c r="C97" s="156"/>
+      <c r="D97" s="156"/>
+      <c r="E97" s="156"/>
       <c r="F97" s="25" t="s">
         <v>27</v>
       </c>
@@ -5396,15 +5460,15 @@
       </c>
       <c r="H97" s="26"/>
       <c r="I97" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="144"/>
-      <c r="B98" s="144"/>
-      <c r="C98" s="144"/>
-      <c r="D98" s="144"/>
-      <c r="E98" s="144"/>
+      <c r="A98" s="157"/>
+      <c r="B98" s="157"/>
+      <c r="C98" s="157"/>
+      <c r="D98" s="157"/>
+      <c r="E98" s="157"/>
       <c r="F98" s="25" t="s">
         <v>30</v>
       </c>
@@ -5413,93 +5477,93 @@
       </c>
       <c r="H98" s="26"/>
       <c r="I98" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="B99" s="122" t="s">
-        <v>193</v>
+      <c r="A99" s="132" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" s="135" t="s">
+        <v>336</v>
       </c>
       <c r="C99" s="61"/>
       <c r="D99" s="62"/>
-      <c r="E99" s="124" t="s">
-        <v>211</v>
+      <c r="E99" s="137" t="s">
+        <v>199</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H99" s="59"/>
       <c r="I99" s="66" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="197"/>
-      <c r="B100" s="197"/>
+      <c r="A100" s="216"/>
+      <c r="B100" s="216"/>
       <c r="C100" s="61"/>
       <c r="D100" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E100" s="125"/>
+      <c r="E100" s="138"/>
       <c r="F100" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G100" s="108" t="s">
         <v>73</v>
       </c>
+      <c r="G100" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="H100" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I100" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="197"/>
-      <c r="B101" s="197"/>
+      <c r="A101" s="216"/>
+      <c r="B101" s="216"/>
       <c r="C101" s="61"/>
       <c r="D101" s="62"/>
-      <c r="E101" s="125"/>
+      <c r="E101" s="138"/>
       <c r="F101" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H101" s="59"/>
       <c r="I101" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="197"/>
-      <c r="B102" s="197"/>
+      <c r="A102" s="216"/>
+      <c r="B102" s="216"/>
       <c r="C102" s="61"/>
       <c r="D102" s="62"/>
-      <c r="E102" s="125"/>
+      <c r="E102" s="138"/>
       <c r="F102" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G102" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H102" s="59"/>
       <c r="I102" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="197"/>
-      <c r="B103" s="197"/>
+      <c r="A103" s="216"/>
+      <c r="B103" s="216"/>
       <c r="C103" s="61"/>
       <c r="D103" s="62"/>
-      <c r="E103" s="125"/>
+      <c r="E103" s="138"/>
       <c r="F103" s="23" t="s">
         <v>26</v>
       </c>
@@ -5508,15 +5572,15 @@
       </c>
       <c r="H103" s="59"/>
       <c r="I103" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="197"/>
-      <c r="B104" s="197"/>
+      <c r="A104" s="216"/>
+      <c r="B104" s="216"/>
       <c r="C104" s="61"/>
       <c r="D104" s="62"/>
-      <c r="E104" s="125"/>
+      <c r="E104" s="138"/>
       <c r="F104" s="23" t="s">
         <v>27</v>
       </c>
@@ -5525,15 +5589,15 @@
       </c>
       <c r="H104" s="59"/>
       <c r="I104" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="198"/>
-      <c r="B105" s="198"/>
+      <c r="A105" s="217"/>
+      <c r="B105" s="217"/>
       <c r="C105" s="61"/>
       <c r="D105" s="62"/>
-      <c r="E105" s="126"/>
+      <c r="E105" s="139"/>
       <c r="F105" s="23" t="s">
         <v>30</v>
       </c>
@@ -5542,260 +5606,260 @@
       </c>
       <c r="H105" s="59"/>
       <c r="I105" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="130" t="s">
-        <v>262</v>
-      </c>
-      <c r="B106" s="129" t="s">
-        <v>194</v>
+      <c r="A106" s="143" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" s="142" t="s">
+        <v>337</v>
       </c>
       <c r="C106" s="65"/>
-      <c r="D106" s="128" t="s">
+      <c r="D106" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="E106" s="134" t="s">
-        <v>211</v>
+      <c r="E106" s="147" t="s">
+        <v>199</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H106" s="26"/>
       <c r="I106" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="120"/>
-      <c r="B107" s="120"/>
+      <c r="A107" s="133"/>
+      <c r="B107" s="133"/>
       <c r="C107" s="60"/>
-      <c r="D107" s="120"/>
-      <c r="E107" s="132"/>
+      <c r="D107" s="133"/>
+      <c r="E107" s="145"/>
       <c r="F107" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H107" s="26"/>
       <c r="I107" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A108" s="120"/>
-      <c r="B108" s="120"/>
+      <c r="A108" s="133"/>
+      <c r="B108" s="133"/>
       <c r="C108" s="60"/>
-      <c r="D108" s="120"/>
-      <c r="E108" s="132"/>
+      <c r="D108" s="133"/>
+      <c r="E108" s="145"/>
       <c r="F108" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H108" s="26"/>
       <c r="I108" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="121"/>
-      <c r="B109" s="121"/>
+      <c r="A109" s="134"/>
+      <c r="B109" s="134"/>
       <c r="C109" s="60"/>
-      <c r="D109" s="121"/>
-      <c r="E109" s="133"/>
+      <c r="D109" s="134"/>
+      <c r="E109" s="146"/>
       <c r="F109" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H109" s="26"/>
       <c r="I109" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="B110" s="122" t="s">
-        <v>195</v>
+      <c r="A110" s="132" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" s="135" t="s">
+        <v>338</v>
       </c>
       <c r="C110" s="68"/>
-      <c r="D110" s="123" t="s">
+      <c r="D110" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="124" t="s">
-        <v>211</v>
+      <c r="E110" s="137" t="s">
+        <v>199</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H110" s="59"/>
       <c r="I110" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="120"/>
-      <c r="B111" s="120"/>
+      <c r="A111" s="133"/>
+      <c r="B111" s="133"/>
       <c r="C111" s="61"/>
-      <c r="D111" s="120"/>
-      <c r="E111" s="125"/>
+      <c r="D111" s="133"/>
+      <c r="E111" s="138"/>
       <c r="F111" s="50" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H111" s="59"/>
       <c r="I111" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="120"/>
-      <c r="B112" s="120"/>
+      <c r="A112" s="133"/>
+      <c r="B112" s="133"/>
       <c r="C112" s="61"/>
-      <c r="D112" s="120"/>
-      <c r="E112" s="125"/>
+      <c r="D112" s="133"/>
+      <c r="E112" s="138"/>
       <c r="F112" s="50" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H112" s="59"/>
       <c r="I112" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="120"/>
-      <c r="B113" s="120"/>
+      <c r="A113" s="133"/>
+      <c r="B113" s="133"/>
       <c r="C113" s="61"/>
-      <c r="D113" s="120"/>
-      <c r="E113" s="125"/>
+      <c r="D113" s="133"/>
+      <c r="E113" s="138"/>
       <c r="F113" s="23" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G113" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H113" s="59"/>
       <c r="I113" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="121"/>
-      <c r="B114" s="121"/>
+      <c r="A114" s="134"/>
+      <c r="B114" s="134"/>
       <c r="C114" s="61"/>
-      <c r="D114" s="121"/>
-      <c r="E114" s="126"/>
+      <c r="D114" s="134"/>
+      <c r="E114" s="139"/>
       <c r="F114" s="23" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G114" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H114" s="59"/>
       <c r="I114" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="130" t="s">
-        <v>264</v>
-      </c>
-      <c r="B115" s="129" t="s">
-        <v>196</v>
+      <c r="A115" s="143" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" s="142" t="s">
+        <v>339</v>
       </c>
       <c r="C115" s="65"/>
-      <c r="D115" s="128" t="s">
+      <c r="D115" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="E115" s="127" t="s">
-        <v>211</v>
+      <c r="E115" s="140" t="s">
+        <v>199</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H115" s="26"/>
       <c r="I115" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="120"/>
-      <c r="B116" s="120"/>
+      <c r="A116" s="133"/>
+      <c r="B116" s="133"/>
       <c r="C116" s="60"/>
-      <c r="D116" s="120"/>
-      <c r="E116" s="125"/>
+      <c r="D116" s="133"/>
+      <c r="E116" s="138"/>
       <c r="F116" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G116" s="25" t="s">
         <v>25</v>
       </c>
       <c r="H116" s="26"/>
       <c r="I116" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="120"/>
-      <c r="B117" s="120"/>
+      <c r="A117" s="133"/>
+      <c r="B117" s="133"/>
       <c r="C117" s="60"/>
-      <c r="D117" s="120"/>
-      <c r="E117" s="125"/>
+      <c r="D117" s="133"/>
+      <c r="E117" s="138"/>
       <c r="F117" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G117" s="25" t="s">
         <v>25</v>
       </c>
       <c r="H117" s="26"/>
       <c r="I117" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="120"/>
-      <c r="B118" s="120"/>
+      <c r="A118" s="133"/>
+      <c r="B118" s="133"/>
       <c r="C118" s="60"/>
-      <c r="D118" s="120"/>
-      <c r="E118" s="125"/>
+      <c r="D118" s="133"/>
+      <c r="E118" s="138"/>
       <c r="F118" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G118" s="25" t="s">
         <v>25</v>
       </c>
       <c r="H118" s="26"/>
       <c r="I118" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="120"/>
-      <c r="B119" s="120"/>
+      <c r="A119" s="133"/>
+      <c r="B119" s="133"/>
       <c r="C119" s="60"/>
-      <c r="D119" s="120"/>
-      <c r="E119" s="125"/>
+      <c r="D119" s="133"/>
+      <c r="E119" s="138"/>
       <c r="F119" s="25" t="s">
         <v>26</v>
       </c>
@@ -5804,108 +5868,108 @@
       </c>
       <c r="H119" s="26"/>
       <c r="I119" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="121"/>
-      <c r="B120" s="121"/>
+      <c r="A120" s="134"/>
+      <c r="B120" s="134"/>
       <c r="C120" s="60"/>
-      <c r="D120" s="121"/>
-      <c r="E120" s="126"/>
+      <c r="D120" s="134"/>
+      <c r="E120" s="139"/>
       <c r="F120" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G120" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H120" s="26"/>
       <c r="I120" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="119" t="s">
-        <v>265</v>
-      </c>
-      <c r="B121" s="122" t="s">
-        <v>197</v>
+      <c r="A121" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="135" t="s">
+        <v>340</v>
       </c>
       <c r="C121" s="68"/>
-      <c r="D121" s="123" t="s">
+      <c r="D121" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="E121" s="131" t="s">
-        <v>211</v>
+      <c r="E121" s="144" t="s">
+        <v>199</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G121" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H121" s="69"/>
       <c r="I121" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="120"/>
-      <c r="B122" s="120"/>
+      <c r="A122" s="133"/>
+      <c r="B122" s="133"/>
       <c r="C122" s="61"/>
-      <c r="D122" s="120"/>
-      <c r="E122" s="132"/>
+      <c r="D122" s="133"/>
+      <c r="E122" s="145"/>
       <c r="F122" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G122" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H122" s="70"/>
       <c r="I122" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="120"/>
-      <c r="B123" s="120"/>
+      <c r="A123" s="133"/>
+      <c r="B123" s="133"/>
       <c r="C123" s="61"/>
-      <c r="D123" s="120"/>
-      <c r="E123" s="132"/>
+      <c r="D123" s="133"/>
+      <c r="E123" s="145"/>
       <c r="F123" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G123" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H123" s="70"/>
       <c r="I123" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="120"/>
-      <c r="B124" s="120"/>
+      <c r="A124" s="133"/>
+      <c r="B124" s="133"/>
       <c r="C124" s="61"/>
-      <c r="D124" s="120"/>
-      <c r="E124" s="132"/>
+      <c r="D124" s="133"/>
+      <c r="E124" s="145"/>
       <c r="F124" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G124" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H124" s="70"/>
       <c r="I124" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="120"/>
-      <c r="B125" s="120"/>
+      <c r="A125" s="133"/>
+      <c r="B125" s="133"/>
       <c r="C125" s="61"/>
-      <c r="D125" s="120"/>
-      <c r="E125" s="132"/>
+      <c r="D125" s="133"/>
+      <c r="E125" s="145"/>
       <c r="F125" s="23" t="s">
         <v>26</v>
       </c>
@@ -5914,682 +5978,682 @@
       </c>
       <c r="H125" s="70"/>
       <c r="I125" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="120"/>
-      <c r="B126" s="120"/>
+      <c r="A126" s="133"/>
+      <c r="B126" s="133"/>
       <c r="C126" s="61"/>
-      <c r="D126" s="120"/>
-      <c r="E126" s="132"/>
+      <c r="D126" s="133"/>
+      <c r="E126" s="145"/>
       <c r="F126" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G126" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H126" s="70"/>
       <c r="I126" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="120"/>
-      <c r="B127" s="120"/>
+      <c r="A127" s="133"/>
+      <c r="B127" s="133"/>
       <c r="C127" s="61"/>
-      <c r="D127" s="120"/>
-      <c r="E127" s="132"/>
+      <c r="D127" s="133"/>
+      <c r="E127" s="145"/>
       <c r="F127" s="71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G127" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H127" s="70"/>
       <c r="I127" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="120"/>
-      <c r="B128" s="120"/>
+      <c r="A128" s="133"/>
+      <c r="B128" s="133"/>
       <c r="C128" s="61"/>
-      <c r="D128" s="120"/>
-      <c r="E128" s="132"/>
+      <c r="D128" s="133"/>
+      <c r="E128" s="145"/>
       <c r="F128" s="23" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H128" s="70"/>
       <c r="I128" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="120"/>
-      <c r="B129" s="120"/>
+      <c r="A129" s="133"/>
+      <c r="B129" s="133"/>
       <c r="C129" s="61"/>
-      <c r="D129" s="120"/>
-      <c r="E129" s="132"/>
+      <c r="D129" s="133"/>
+      <c r="E129" s="145"/>
       <c r="F129" s="23" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H129" s="70"/>
       <c r="I129" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="121"/>
-      <c r="B130" s="121"/>
+      <c r="A130" s="134"/>
+      <c r="B130" s="134"/>
       <c r="C130" s="61"/>
-      <c r="D130" s="121"/>
-      <c r="E130" s="133"/>
+      <c r="D130" s="134"/>
+      <c r="E130" s="146"/>
       <c r="F130" s="64" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G130" s="63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="130" t="s">
-        <v>266</v>
-      </c>
-      <c r="B131" s="129" t="s">
-        <v>339</v>
+      <c r="A131" s="143" t="s">
+        <v>239</v>
+      </c>
+      <c r="B131" s="142" t="s">
+        <v>341</v>
       </c>
       <c r="C131" s="65"/>
-      <c r="D131" s="128" t="s">
+      <c r="D131" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="E131" s="134" t="s">
-        <v>211</v>
+      <c r="E131" s="147" t="s">
+        <v>199</v>
       </c>
       <c r="F131" s="34" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="G131" s="72"/>
       <c r="H131" s="73"/>
       <c r="I131" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="200"/>
-      <c r="B132" s="202"/>
+      <c r="A132" s="219"/>
+      <c r="B132" s="221"/>
       <c r="C132" s="60"/>
-      <c r="D132" s="204"/>
-      <c r="E132" s="206"/>
+      <c r="D132" s="223"/>
+      <c r="E132" s="225"/>
       <c r="F132" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G132" s="74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H132" s="73"/>
       <c r="I132" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="200"/>
-      <c r="B133" s="202"/>
+      <c r="A133" s="219"/>
+      <c r="B133" s="221"/>
       <c r="C133" s="60"/>
-      <c r="D133" s="204"/>
-      <c r="E133" s="206"/>
+      <c r="D133" s="223"/>
+      <c r="E133" s="225"/>
       <c r="F133" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G133" s="75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H133" s="73"/>
       <c r="I133" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="200"/>
-      <c r="B134" s="202"/>
+      <c r="A134" s="219"/>
+      <c r="B134" s="221"/>
       <c r="C134" s="60"/>
-      <c r="D134" s="204"/>
-      <c r="E134" s="206"/>
+      <c r="D134" s="223"/>
+      <c r="E134" s="225"/>
       <c r="F134" s="34" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G134" s="72"/>
       <c r="H134" s="73"/>
       <c r="I134" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="200"/>
-      <c r="B135" s="202"/>
+      <c r="A135" s="219"/>
+      <c r="B135" s="221"/>
       <c r="C135" s="60"/>
-      <c r="D135" s="204"/>
-      <c r="E135" s="206"/>
+      <c r="D135" s="223"/>
+      <c r="E135" s="225"/>
       <c r="F135" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G135" s="74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H135" s="73"/>
       <c r="I135" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="200"/>
-      <c r="B136" s="202"/>
+      <c r="A136" s="219"/>
+      <c r="B136" s="221"/>
       <c r="C136" s="60"/>
-      <c r="D136" s="204"/>
-      <c r="E136" s="206"/>
+      <c r="D136" s="223"/>
+      <c r="E136" s="225"/>
       <c r="F136" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G136" s="75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H136" s="73"/>
       <c r="I136" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="200"/>
-      <c r="B137" s="202"/>
+      <c r="A137" s="219"/>
+      <c r="B137" s="221"/>
       <c r="C137" s="60"/>
-      <c r="D137" s="204"/>
-      <c r="E137" s="206"/>
+      <c r="D137" s="223"/>
+      <c r="E137" s="225"/>
       <c r="F137" s="34" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G137" s="72"/>
       <c r="H137" s="73"/>
       <c r="I137" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="200"/>
-      <c r="B138" s="202"/>
+      <c r="A138" s="219"/>
+      <c r="B138" s="221"/>
       <c r="C138" s="60"/>
-      <c r="D138" s="204"/>
-      <c r="E138" s="206"/>
+      <c r="D138" s="223"/>
+      <c r="E138" s="225"/>
       <c r="F138" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G138" s="74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H138" s="73"/>
       <c r="I138" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="200"/>
-      <c r="B139" s="202"/>
+      <c r="A139" s="219"/>
+      <c r="B139" s="221"/>
       <c r="C139" s="60"/>
-      <c r="D139" s="204"/>
-      <c r="E139" s="206"/>
+      <c r="D139" s="223"/>
+      <c r="E139" s="225"/>
       <c r="F139" s="41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G139" s="76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H139" s="73"/>
       <c r="I139" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="201"/>
-      <c r="B140" s="203"/>
+      <c r="A140" s="220"/>
+      <c r="B140" s="222"/>
       <c r="C140" s="60"/>
-      <c r="D140" s="205"/>
-      <c r="E140" s="207"/>
+      <c r="D140" s="224"/>
+      <c r="E140" s="226"/>
       <c r="F140" s="25" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="G140" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H140" s="73"/>
       <c r="I140" s="37"/>
     </row>
     <row r="141" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="119" t="s">
-        <v>267</v>
-      </c>
-      <c r="B141" s="122" t="s">
-        <v>213</v>
+      <c r="A141" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="B141" s="135" t="s">
+        <v>342</v>
       </c>
       <c r="C141" s="68"/>
-      <c r="D141" s="123" t="s">
+      <c r="D141" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="E141" s="123" t="s">
-        <v>211</v>
+      <c r="E141" s="136" t="s">
+        <v>199</v>
       </c>
       <c r="F141" s="28" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G141" s="83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H141" s="70"/>
       <c r="I141" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="120"/>
-      <c r="B142" s="120"/>
+      <c r="A142" s="133"/>
+      <c r="B142" s="133"/>
       <c r="C142" s="61"/>
-      <c r="D142" s="120"/>
-      <c r="E142" s="120"/>
+      <c r="D142" s="133"/>
+      <c r="E142" s="133"/>
       <c r="F142" s="18" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G142" s="77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H142" s="70"/>
       <c r="I142" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="120"/>
-      <c r="B143" s="120"/>
+      <c r="A143" s="133"/>
+      <c r="B143" s="133"/>
       <c r="C143" s="61"/>
-      <c r="D143" s="120"/>
-      <c r="E143" s="120"/>
+      <c r="D143" s="133"/>
+      <c r="E143" s="133"/>
       <c r="F143" s="20" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G143" s="78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H143" s="70"/>
       <c r="I143" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="121"/>
-      <c r="B144" s="121"/>
+      <c r="A144" s="134"/>
+      <c r="B144" s="134"/>
       <c r="C144" s="61"/>
-      <c r="D144" s="121"/>
-      <c r="E144" s="121"/>
+      <c r="D144" s="134"/>
+      <c r="E144" s="134"/>
       <c r="F144" s="79" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G144" s="80" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H144" s="70"/>
       <c r="I144" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="116" t="s">
-        <v>337</v>
-      </c>
-      <c r="B145" s="116" t="s">
-        <v>336</v>
-      </c>
-      <c r="C145" s="115"/>
-      <c r="D145" s="116"/>
-      <c r="E145" s="116" t="s">
-        <v>319</v>
-      </c>
-      <c r="F145" s="113" t="s">
-        <v>317</v>
-      </c>
-      <c r="G145" s="114" t="s">
-        <v>318</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="B145" s="227" t="s">
+        <v>343</v>
+      </c>
+      <c r="C145" s="114"/>
+      <c r="D145" s="115"/>
+      <c r="E145" s="132" t="s">
+        <v>287</v>
+      </c>
+      <c r="F145" s="112" t="s">
+        <v>285</v>
+      </c>
+      <c r="G145" s="113" t="s">
+        <v>286</v>
       </c>
       <c r="H145" s="70"/>
       <c r="I145" s="17"/>
     </row>
     <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="116"/>
-      <c r="B146" s="116"/>
-      <c r="C146" s="116"/>
-      <c r="D146" s="116"/>
-      <c r="E146" s="116"/>
-      <c r="F146" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="G146" s="114" t="s">
-        <v>73</v>
+      <c r="A146" s="216"/>
+      <c r="B146" s="216"/>
+      <c r="C146" s="115"/>
+      <c r="D146" s="115"/>
+      <c r="E146" s="216"/>
+      <c r="F146" s="125" t="s">
+        <v>288</v>
+      </c>
+      <c r="G146" s="113" t="s">
+        <v>71</v>
       </c>
       <c r="H146" s="70"/>
       <c r="I146" s="17"/>
     </row>
     <row r="147" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="116"/>
-      <c r="B147" s="116"/>
-      <c r="C147" s="116"/>
-      <c r="D147" s="116"/>
-      <c r="E147" s="116"/>
-      <c r="F147" s="113" t="s">
-        <v>321</v>
-      </c>
-      <c r="G147" s="114" t="s">
-        <v>318</v>
+      <c r="A147" s="216"/>
+      <c r="B147" s="216"/>
+      <c r="C147" s="115"/>
+      <c r="D147" s="115"/>
+      <c r="E147" s="216"/>
+      <c r="F147" s="112" t="s">
+        <v>289</v>
+      </c>
+      <c r="G147" s="113" t="s">
+        <v>286</v>
       </c>
       <c r="H147" s="70"/>
       <c r="I147" s="17"/>
     </row>
     <row r="148" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="116"/>
-      <c r="B148" s="116"/>
-      <c r="C148" s="116"/>
-      <c r="D148" s="116"/>
-      <c r="E148" s="116"/>
-      <c r="F148" s="208" t="s">
-        <v>322</v>
-      </c>
-      <c r="G148" s="114" t="s">
+      <c r="A148" s="216"/>
+      <c r="B148" s="216"/>
+      <c r="C148" s="115"/>
+      <c r="D148" s="115"/>
+      <c r="E148" s="216"/>
+      <c r="F148" s="125" t="s">
+        <v>290</v>
+      </c>
+      <c r="G148" s="113" t="s">
         <v>19</v>
       </c>
       <c r="H148" s="70"/>
       <c r="I148" s="17"/>
     </row>
     <row r="149" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="116"/>
-      <c r="B149" s="116"/>
-      <c r="C149" s="116"/>
-      <c r="D149" s="116"/>
-      <c r="E149" s="116"/>
-      <c r="F149" s="113" t="s">
-        <v>323</v>
-      </c>
-      <c r="G149" s="114" t="s">
-        <v>324</v>
+      <c r="A149" s="216"/>
+      <c r="B149" s="216"/>
+      <c r="C149" s="115"/>
+      <c r="D149" s="115"/>
+      <c r="E149" s="216"/>
+      <c r="F149" s="112" t="s">
+        <v>291</v>
+      </c>
+      <c r="G149" s="113" t="s">
+        <v>292</v>
       </c>
       <c r="H149" s="70"/>
       <c r="I149" s="17"/>
     </row>
     <row r="150" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="116"/>
-      <c r="B150" s="116"/>
-      <c r="C150" s="116"/>
-      <c r="D150" s="116"/>
-      <c r="E150" s="116"/>
-      <c r="F150" s="208" t="s">
-        <v>325</v>
-      </c>
-      <c r="G150" s="114" t="s">
-        <v>326</v>
+      <c r="A150" s="216"/>
+      <c r="B150" s="216"/>
+      <c r="C150" s="115"/>
+      <c r="D150" s="115"/>
+      <c r="E150" s="216"/>
+      <c r="F150" s="125" t="s">
+        <v>293</v>
+      </c>
+      <c r="G150" s="113" t="s">
+        <v>294</v>
       </c>
       <c r="H150" s="70"/>
       <c r="I150" s="17"/>
     </row>
     <row r="151" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="116"/>
-      <c r="B151" s="116"/>
-      <c r="C151" s="116"/>
-      <c r="D151" s="116"/>
-      <c r="E151" s="116"/>
-      <c r="F151" s="113" t="s">
-        <v>327</v>
-      </c>
-      <c r="G151" s="114" t="s">
-        <v>328</v>
+      <c r="A151" s="216"/>
+      <c r="B151" s="216"/>
+      <c r="C151" s="115"/>
+      <c r="D151" s="115"/>
+      <c r="E151" s="216"/>
+      <c r="F151" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="G151" s="113" t="s">
+        <v>296</v>
       </c>
       <c r="H151" s="70"/>
       <c r="I151" s="17"/>
     </row>
     <row r="152" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="116"/>
-      <c r="B152" s="116"/>
-      <c r="C152" s="116"/>
-      <c r="D152" s="116"/>
-      <c r="E152" s="116"/>
-      <c r="F152" s="208" t="s">
-        <v>329</v>
-      </c>
-      <c r="G152" s="114" t="s">
-        <v>330</v>
+      <c r="A152" s="216"/>
+      <c r="B152" s="216"/>
+      <c r="C152" s="115"/>
+      <c r="D152" s="115"/>
+      <c r="E152" s="216"/>
+      <c r="F152" s="125" t="s">
+        <v>297</v>
+      </c>
+      <c r="G152" s="113" t="s">
+        <v>298</v>
       </c>
       <c r="H152" s="70"/>
       <c r="I152" s="17"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="116"/>
-      <c r="B153" s="116"/>
-      <c r="C153" s="116"/>
-      <c r="D153" s="116"/>
-      <c r="E153" s="116"/>
-      <c r="F153" s="113" t="s">
-        <v>331</v>
-      </c>
-      <c r="G153" s="114" t="s">
-        <v>332</v>
+      <c r="A153" s="216"/>
+      <c r="B153" s="216"/>
+      <c r="C153" s="115"/>
+      <c r="D153" s="115"/>
+      <c r="E153" s="216"/>
+      <c r="F153" s="112" t="s">
+        <v>299</v>
+      </c>
+      <c r="G153" s="113" t="s">
+        <v>300</v>
       </c>
       <c r="H153" s="70"/>
       <c r="I153" s="17"/>
     </row>
     <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="116"/>
-      <c r="B154" s="116"/>
-      <c r="C154" s="116"/>
-      <c r="D154" s="116"/>
-      <c r="E154" s="116"/>
-      <c r="F154" s="208" t="s">
-        <v>333</v>
-      </c>
-      <c r="G154" s="114" t="s">
+      <c r="A154" s="216"/>
+      <c r="B154" s="216"/>
+      <c r="C154" s="115"/>
+      <c r="D154" s="115"/>
+      <c r="E154" s="216"/>
+      <c r="F154" s="125" t="s">
+        <v>301</v>
+      </c>
+      <c r="G154" s="113" t="s">
         <v>24</v>
       </c>
       <c r="H154" s="70"/>
       <c r="I154" s="17"/>
     </row>
     <row r="155" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="116"/>
-      <c r="B155" s="116"/>
-      <c r="C155" s="116"/>
-      <c r="D155" s="116"/>
-      <c r="E155" s="116"/>
-      <c r="F155" s="113" t="s">
-        <v>334</v>
-      </c>
-      <c r="G155" s="114" t="s">
-        <v>335</v>
+      <c r="A155" s="216"/>
+      <c r="B155" s="216"/>
+      <c r="C155" s="115"/>
+      <c r="D155" s="115"/>
+      <c r="E155" s="216"/>
+      <c r="F155" s="112" t="s">
+        <v>302</v>
+      </c>
+      <c r="G155" s="113" t="s">
+        <v>303</v>
       </c>
       <c r="H155" s="70"/>
       <c r="I155" s="17"/>
     </row>
     <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="116"/>
-      <c r="B156" s="116"/>
-      <c r="C156" s="116"/>
-      <c r="D156" s="116"/>
-      <c r="E156" s="116"/>
-      <c r="F156" s="113"/>
-      <c r="G156" s="114"/>
+      <c r="A156" s="217"/>
+      <c r="B156" s="217"/>
+      <c r="C156" s="115"/>
+      <c r="D156" s="115"/>
+      <c r="E156" s="217"/>
+      <c r="F156" s="112"/>
+      <c r="G156" s="113"/>
       <c r="H156" s="70"/>
       <c r="I156" s="17"/>
     </row>
     <row r="157" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="130" t="s">
-        <v>268</v>
-      </c>
-      <c r="B157" s="129" t="s">
-        <v>214</v>
+      <c r="A157" s="143" t="s">
+        <v>241</v>
+      </c>
+      <c r="B157" s="142" t="s">
+        <v>344</v>
       </c>
       <c r="C157" s="65"/>
-      <c r="D157" s="128" t="s">
+      <c r="D157" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="E157" s="128" t="s">
-        <v>211</v>
+      <c r="E157" s="141" t="s">
+        <v>199</v>
       </c>
       <c r="F157" s="34" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G157" s="72" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H157" s="73"/>
       <c r="I157" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A158" s="120"/>
-      <c r="B158" s="120"/>
+      <c r="A158" s="133"/>
+      <c r="B158" s="133"/>
       <c r="C158" s="60"/>
-      <c r="D158" s="120"/>
-      <c r="E158" s="120"/>
+      <c r="D158" s="133"/>
+      <c r="E158" s="133"/>
       <c r="F158" s="39" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G158" s="74" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H158" s="73"/>
       <c r="I158" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A159" s="121"/>
-      <c r="B159" s="121"/>
+      <c r="A159" s="134"/>
+      <c r="B159" s="134"/>
       <c r="C159" s="60"/>
-      <c r="D159" s="121"/>
-      <c r="E159" s="121"/>
+      <c r="D159" s="134"/>
+      <c r="E159" s="134"/>
       <c r="F159" s="81" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G159" s="76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H159" s="73"/>
       <c r="I159" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="119" t="s">
-        <v>269</v>
-      </c>
-      <c r="B160" s="122" t="s">
-        <v>215</v>
+      <c r="A160" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="B160" s="135" t="s">
+        <v>345</v>
       </c>
       <c r="C160" s="68"/>
-      <c r="D160" s="123" t="s">
+      <c r="D160" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="E160" s="124" t="s">
+      <c r="E160" s="137" t="s">
+        <v>199</v>
+      </c>
+      <c r="F160" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F160" s="23" t="s">
-        <v>226</v>
-      </c>
       <c r="G160" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H160" s="70"/>
       <c r="I160" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="120"/>
-      <c r="B161" s="120"/>
+      <c r="A161" s="133"/>
+      <c r="B161" s="133"/>
       <c r="C161" s="61"/>
-      <c r="D161" s="120"/>
-      <c r="E161" s="125"/>
+      <c r="D161" s="133"/>
+      <c r="E161" s="138"/>
       <c r="F161" s="50" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="G161" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H161" s="70"/>
       <c r="I161" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="120"/>
-      <c r="B162" s="120"/>
+      <c r="A162" s="133"/>
+      <c r="B162" s="133"/>
       <c r="C162" s="61"/>
-      <c r="D162" s="120"/>
-      <c r="E162" s="125"/>
+      <c r="D162" s="133"/>
+      <c r="E162" s="138"/>
       <c r="F162" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G162" s="108" t="s">
         <v>73</v>
       </c>
+      <c r="G162" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="H162" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="133"/>
+      <c r="B163" s="133"/>
+      <c r="C163" s="61"/>
+      <c r="D163" s="133"/>
+      <c r="E163" s="138"/>
+      <c r="F163" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I162" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="120"/>
-      <c r="B163" s="120"/>
-      <c r="C163" s="61"/>
-      <c r="D163" s="120"/>
-      <c r="E163" s="125"/>
-      <c r="F163" s="23" t="s">
-        <v>76</v>
-      </c>
       <c r="G163" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H163" s="70"/>
       <c r="I163" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="120"/>
-      <c r="B164" s="120"/>
+      <c r="A164" s="133"/>
+      <c r="B164" s="133"/>
       <c r="C164" s="61"/>
-      <c r="D164" s="120"/>
-      <c r="E164" s="125"/>
+      <c r="D164" s="133"/>
+      <c r="E164" s="138"/>
       <c r="F164" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G164" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H164" s="70"/>
       <c r="I164" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="120"/>
-      <c r="B165" s="120"/>
+      <c r="A165" s="133"/>
+      <c r="B165" s="133"/>
       <c r="C165" s="61"/>
-      <c r="D165" s="120"/>
-      <c r="E165" s="125"/>
+      <c r="D165" s="133"/>
+      <c r="E165" s="138"/>
       <c r="F165" s="23" t="s">
         <v>26</v>
       </c>
@@ -6598,15 +6662,15 @@
       </c>
       <c r="H165" s="70"/>
       <c r="I165" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="120"/>
-      <c r="B166" s="120"/>
+      <c r="A166" s="133"/>
+      <c r="B166" s="133"/>
       <c r="C166" s="61"/>
-      <c r="D166" s="120"/>
-      <c r="E166" s="125"/>
+      <c r="D166" s="133"/>
+      <c r="E166" s="138"/>
       <c r="F166" s="23" t="s">
         <v>27</v>
       </c>
@@ -6615,15 +6679,15 @@
       </c>
       <c r="H166" s="70"/>
       <c r="I166" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="120"/>
-      <c r="B167" s="120"/>
+      <c r="A167" s="133"/>
+      <c r="B167" s="133"/>
       <c r="C167" s="61"/>
-      <c r="D167" s="120"/>
-      <c r="E167" s="125"/>
+      <c r="D167" s="133"/>
+      <c r="E167" s="138"/>
       <c r="F167" s="23" t="s">
         <v>30</v>
       </c>
@@ -6632,127 +6696,127 @@
       </c>
       <c r="H167" s="70"/>
       <c r="I167" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A168" s="120"/>
-      <c r="B168" s="120"/>
+      <c r="A168" s="133"/>
+      <c r="B168" s="133"/>
       <c r="C168" s="61"/>
-      <c r="D168" s="120"/>
-      <c r="E168" s="125"/>
+      <c r="D168" s="133"/>
+      <c r="E168" s="138"/>
       <c r="F168" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G168" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H168" s="70"/>
       <c r="I168" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="121"/>
-      <c r="B169" s="121"/>
+      <c r="A169" s="134"/>
+      <c r="B169" s="134"/>
       <c r="C169" s="61"/>
-      <c r="D169" s="121"/>
-      <c r="E169" s="126"/>
+      <c r="D169" s="134"/>
+      <c r="E169" s="139"/>
       <c r="F169" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G169" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H169" s="70"/>
       <c r="I169" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="130" t="s">
-        <v>270</v>
-      </c>
-      <c r="B170" s="129" t="s">
-        <v>227</v>
+      <c r="A170" s="143" t="s">
+        <v>243</v>
+      </c>
+      <c r="B170" s="142" t="s">
+        <v>346</v>
       </c>
       <c r="C170" s="65"/>
-      <c r="D170" s="128" t="s">
+      <c r="D170" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="E170" s="127" t="s">
-        <v>282</v>
+      <c r="E170" s="140" t="s">
+        <v>255</v>
       </c>
       <c r="F170" s="25" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G170" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H170" s="73"/>
       <c r="I170" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="120"/>
-      <c r="B171" s="120"/>
+      <c r="A171" s="133"/>
+      <c r="B171" s="133"/>
       <c r="C171" s="60"/>
-      <c r="D171" s="120"/>
-      <c r="E171" s="125"/>
+      <c r="D171" s="133"/>
+      <c r="E171" s="138"/>
       <c r="F171" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G171" s="108" t="s">
         <v>73</v>
       </c>
+      <c r="G171" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="H171" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I171" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="133"/>
+      <c r="B172" s="133"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="133"/>
+      <c r="E172" s="138"/>
+      <c r="F172" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I171" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="120"/>
-      <c r="B172" s="120"/>
-      <c r="C172" s="60"/>
-      <c r="D172" s="120"/>
-      <c r="E172" s="125"/>
-      <c r="F172" s="25" t="s">
-        <v>76</v>
-      </c>
       <c r="G172" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H172" s="73"/>
       <c r="I172" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="120"/>
-      <c r="B173" s="120"/>
+      <c r="A173" s="133"/>
+      <c r="B173" s="133"/>
       <c r="C173" s="60"/>
-      <c r="D173" s="120"/>
-      <c r="E173" s="125"/>
+      <c r="D173" s="133"/>
+      <c r="E173" s="138"/>
       <c r="F173" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G173" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H173" s="73"/>
       <c r="I173" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="120"/>
-      <c r="B174" s="120"/>
+      <c r="A174" s="133"/>
+      <c r="B174" s="133"/>
       <c r="C174" s="60"/>
-      <c r="D174" s="120"/>
-      <c r="E174" s="125"/>
+      <c r="D174" s="133"/>
+      <c r="E174" s="138"/>
       <c r="F174" s="25" t="s">
         <v>26</v>
       </c>
@@ -6761,15 +6825,15 @@
       </c>
       <c r="H174" s="73"/>
       <c r="I174" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="120"/>
-      <c r="B175" s="120"/>
+      <c r="A175" s="133"/>
+      <c r="B175" s="133"/>
       <c r="C175" s="60"/>
-      <c r="D175" s="120"/>
-      <c r="E175" s="125"/>
+      <c r="D175" s="133"/>
+      <c r="E175" s="138"/>
       <c r="F175" s="25" t="s">
         <v>27</v>
       </c>
@@ -6778,15 +6842,15 @@
       </c>
       <c r="H175" s="73"/>
       <c r="I175" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="121"/>
-      <c r="B176" s="121"/>
+      <c r="A176" s="134"/>
+      <c r="B176" s="134"/>
       <c r="C176" s="60"/>
-      <c r="D176" s="121"/>
-      <c r="E176" s="126"/>
+      <c r="D176" s="134"/>
+      <c r="E176" s="139"/>
       <c r="F176" s="25" t="s">
         <v>30</v>
       </c>
@@ -6795,93 +6859,93 @@
       </c>
       <c r="H176" s="73"/>
       <c r="I176" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="119" t="s">
-        <v>271</v>
-      </c>
-      <c r="B177" s="122" t="s">
-        <v>228</v>
+      <c r="A177" s="132" t="s">
+        <v>244</v>
+      </c>
+      <c r="B177" s="135" t="s">
+        <v>347</v>
       </c>
       <c r="C177" s="68"/>
-      <c r="D177" s="123" t="s">
+      <c r="D177" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="E177" s="131" t="s">
-        <v>283</v>
-      </c>
-      <c r="F177" s="109" t="s">
-        <v>312</v>
+      <c r="E177" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="F177" s="108" t="s">
+        <v>281</v>
       </c>
       <c r="G177" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H177" s="70"/>
       <c r="I177" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="120"/>
-      <c r="B178" s="120"/>
+      <c r="A178" s="133"/>
+      <c r="B178" s="133"/>
       <c r="C178" s="61"/>
-      <c r="D178" s="120"/>
-      <c r="E178" s="132"/>
+      <c r="D178" s="133"/>
+      <c r="E178" s="145"/>
       <c r="F178" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G178" s="108" t="s">
         <v>73</v>
       </c>
+      <c r="G178" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="H178" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I178" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="133"/>
+      <c r="B179" s="133"/>
+      <c r="C179" s="61"/>
+      <c r="D179" s="133"/>
+      <c r="E179" s="145"/>
+      <c r="F179" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I178" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="120"/>
-      <c r="B179" s="120"/>
-      <c r="C179" s="61"/>
-      <c r="D179" s="120"/>
-      <c r="E179" s="132"/>
-      <c r="F179" s="23" t="s">
-        <v>76</v>
-      </c>
       <c r="G179" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H179" s="70"/>
       <c r="I179" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="120"/>
-      <c r="B180" s="120"/>
+      <c r="A180" s="133"/>
+      <c r="B180" s="133"/>
       <c r="C180" s="61"/>
-      <c r="D180" s="120"/>
-      <c r="E180" s="132"/>
+      <c r="D180" s="133"/>
+      <c r="E180" s="145"/>
       <c r="F180" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G180" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H180" s="70"/>
       <c r="I180" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="120"/>
-      <c r="B181" s="120"/>
+      <c r="A181" s="133"/>
+      <c r="B181" s="133"/>
       <c r="C181" s="61"/>
-      <c r="D181" s="120"/>
-      <c r="E181" s="132"/>
+      <c r="D181" s="133"/>
+      <c r="E181" s="145"/>
       <c r="F181" s="23" t="s">
         <v>26</v>
       </c>
@@ -6890,15 +6954,15 @@
       </c>
       <c r="H181" s="70"/>
       <c r="I181" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="120"/>
-      <c r="B182" s="120"/>
+      <c r="A182" s="133"/>
+      <c r="B182" s="133"/>
       <c r="C182" s="61"/>
-      <c r="D182" s="120"/>
-      <c r="E182" s="132"/>
+      <c r="D182" s="133"/>
+      <c r="E182" s="145"/>
       <c r="F182" s="23" t="s">
         <v>27</v>
       </c>
@@ -6907,15 +6971,15 @@
       </c>
       <c r="H182" s="70"/>
       <c r="I182" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="121"/>
-      <c r="B183" s="121"/>
+      <c r="A183" s="134"/>
+      <c r="B183" s="134"/>
       <c r="C183" s="61"/>
-      <c r="D183" s="121"/>
-      <c r="E183" s="133"/>
+      <c r="D183" s="134"/>
+      <c r="E183" s="146"/>
       <c r="F183" s="23" t="s">
         <v>30</v>
       </c>
@@ -6924,260 +6988,260 @@
       </c>
       <c r="H183" s="70"/>
       <c r="I183" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="130" t="s">
-        <v>272</v>
-      </c>
-      <c r="B184" s="129" t="s">
-        <v>229</v>
+      <c r="A184" s="143" t="s">
+        <v>245</v>
+      </c>
+      <c r="B184" s="142" t="s">
+        <v>348</v>
       </c>
       <c r="C184" s="65"/>
-      <c r="D184" s="128" t="s">
+      <c r="D184" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="E184" s="134" t="s">
-        <v>282</v>
+      <c r="E184" s="147" t="s">
+        <v>255</v>
       </c>
       <c r="F184" s="57" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="G184" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H184" s="73"/>
       <c r="I184" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="120"/>
-      <c r="B185" s="120"/>
+      <c r="A185" s="133"/>
+      <c r="B185" s="133"/>
       <c r="C185" s="60"/>
-      <c r="D185" s="120"/>
-      <c r="E185" s="132"/>
+      <c r="D185" s="133"/>
+      <c r="E185" s="145"/>
       <c r="F185" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G185" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H185" s="73"/>
       <c r="I185" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A186" s="120"/>
-      <c r="B186" s="120"/>
+      <c r="A186" s="133"/>
+      <c r="B186" s="133"/>
       <c r="C186" s="60"/>
-      <c r="D186" s="120"/>
-      <c r="E186" s="132"/>
+      <c r="D186" s="133"/>
+      <c r="E186" s="145"/>
       <c r="F186" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G186" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H186" s="73"/>
       <c r="I186" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="121"/>
-      <c r="B187" s="121"/>
+      <c r="A187" s="134"/>
+      <c r="B187" s="134"/>
       <c r="C187" s="60"/>
-      <c r="D187" s="121"/>
-      <c r="E187" s="133"/>
+      <c r="D187" s="134"/>
+      <c r="E187" s="146"/>
       <c r="F187" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G187" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H187" s="73"/>
       <c r="I187" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="B188" s="122" t="s">
-        <v>230</v>
+      <c r="A188" s="132" t="s">
+        <v>246</v>
+      </c>
+      <c r="B188" s="135" t="s">
+        <v>349</v>
       </c>
       <c r="C188" s="68"/>
-      <c r="D188" s="123" t="s">
+      <c r="D188" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="E188" s="131" t="s">
-        <v>282</v>
+      <c r="E188" s="144" t="s">
+        <v>255</v>
       </c>
       <c r="F188" s="23" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G188" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H188" s="70"/>
       <c r="I188" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="120"/>
-      <c r="B189" s="120"/>
+      <c r="A189" s="133"/>
+      <c r="B189" s="133"/>
       <c r="C189" s="61"/>
-      <c r="D189" s="120"/>
-      <c r="E189" s="132"/>
+      <c r="D189" s="133"/>
+      <c r="E189" s="145"/>
       <c r="F189" s="50" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G189" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H189" s="70"/>
       <c r="I189" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="120"/>
-      <c r="B190" s="120"/>
+      <c r="A190" s="133"/>
+      <c r="B190" s="133"/>
       <c r="C190" s="61"/>
-      <c r="D190" s="120"/>
-      <c r="E190" s="132"/>
+      <c r="D190" s="133"/>
+      <c r="E190" s="145"/>
       <c r="F190" s="50" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G190" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H190" s="70"/>
       <c r="I190" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="120"/>
-      <c r="B191" s="120"/>
+      <c r="A191" s="133"/>
+      <c r="B191" s="133"/>
       <c r="C191" s="61"/>
-      <c r="D191" s="120"/>
-      <c r="E191" s="132"/>
+      <c r="D191" s="133"/>
+      <c r="E191" s="145"/>
       <c r="F191" s="23" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G191" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H191" s="70"/>
       <c r="I191" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="121"/>
-      <c r="B192" s="121"/>
+      <c r="A192" s="134"/>
+      <c r="B192" s="134"/>
       <c r="C192" s="61"/>
-      <c r="D192" s="121"/>
-      <c r="E192" s="133"/>
+      <c r="D192" s="134"/>
+      <c r="E192" s="146"/>
       <c r="F192" s="23" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G192" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H192" s="70"/>
       <c r="I192" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="B193" s="129" t="s">
-        <v>231</v>
+      <c r="A193" s="143" t="s">
+        <v>247</v>
+      </c>
+      <c r="B193" s="142" t="s">
+        <v>350</v>
       </c>
       <c r="C193" s="65"/>
-      <c r="D193" s="134" t="s">
+      <c r="D193" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="E193" s="135" t="s">
-        <v>282</v>
+      <c r="E193" s="148" t="s">
+        <v>255</v>
       </c>
       <c r="F193" s="25" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G193" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H193" s="73"/>
       <c r="I193" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="120"/>
-      <c r="B194" s="120"/>
+      <c r="A194" s="133"/>
+      <c r="B194" s="133"/>
       <c r="C194" s="60"/>
-      <c r="D194" s="132"/>
-      <c r="E194" s="136"/>
+      <c r="D194" s="145"/>
+      <c r="E194" s="149"/>
       <c r="F194" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G194" s="25" t="s">
         <v>25</v>
       </c>
       <c r="H194" s="73"/>
       <c r="I194" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="120"/>
-      <c r="B195" s="120"/>
+      <c r="A195" s="133"/>
+      <c r="B195" s="133"/>
       <c r="C195" s="60"/>
-      <c r="D195" s="132"/>
-      <c r="E195" s="136"/>
+      <c r="D195" s="145"/>
+      <c r="E195" s="149"/>
       <c r="F195" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G195" s="25" t="s">
         <v>25</v>
       </c>
       <c r="H195" s="73"/>
       <c r="I195" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="120"/>
-      <c r="B196" s="120"/>
+      <c r="A196" s="133"/>
+      <c r="B196" s="133"/>
       <c r="C196" s="60"/>
-      <c r="D196" s="132"/>
-      <c r="E196" s="136"/>
+      <c r="D196" s="145"/>
+      <c r="E196" s="149"/>
       <c r="F196" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G196" s="25" t="s">
         <v>25</v>
       </c>
       <c r="H196" s="73"/>
       <c r="I196" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="120"/>
-      <c r="B197" s="120"/>
+      <c r="A197" s="133"/>
+      <c r="B197" s="133"/>
       <c r="C197" s="60"/>
-      <c r="D197" s="132"/>
-      <c r="E197" s="136"/>
+      <c r="D197" s="145"/>
+      <c r="E197" s="149"/>
       <c r="F197" s="25" t="s">
         <v>26</v>
       </c>
@@ -7186,108 +7250,108 @@
       </c>
       <c r="H197" s="73"/>
       <c r="I197" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="121"/>
-      <c r="B198" s="121"/>
+      <c r="A198" s="134"/>
+      <c r="B198" s="134"/>
       <c r="C198" s="60"/>
-      <c r="D198" s="133"/>
-      <c r="E198" s="137"/>
+      <c r="D198" s="146"/>
+      <c r="E198" s="150"/>
       <c r="F198" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G198" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H198" s="73"/>
       <c r="I198" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="119" t="s">
+      <c r="A199" s="132" t="s">
+        <v>248</v>
+      </c>
+      <c r="B199" s="135" t="s">
+        <v>351</v>
+      </c>
+      <c r="C199" s="68"/>
+      <c r="D199" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="E199" s="144" t="s">
+        <v>255</v>
+      </c>
+      <c r="F199" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="B199" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="C199" s="68"/>
-      <c r="D199" s="123" t="s">
-        <v>29</v>
-      </c>
-      <c r="E199" s="131" t="s">
-        <v>282</v>
-      </c>
-      <c r="F199" s="23" t="s">
-        <v>306</v>
-      </c>
       <c r="G199" s="23" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="H199" s="70"/>
       <c r="I199" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="120"/>
-      <c r="B200" s="120"/>
+      <c r="A200" s="133"/>
+      <c r="B200" s="133"/>
       <c r="C200" s="61"/>
-      <c r="D200" s="120"/>
-      <c r="E200" s="132"/>
+      <c r="D200" s="133"/>
+      <c r="E200" s="145"/>
       <c r="F200" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G200" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H200" s="70"/>
       <c r="I200" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="120"/>
-      <c r="B201" s="120"/>
+      <c r="A201" s="133"/>
+      <c r="B201" s="133"/>
       <c r="C201" s="61"/>
-      <c r="D201" s="120"/>
-      <c r="E201" s="132"/>
+      <c r="D201" s="133"/>
+      <c r="E201" s="145"/>
       <c r="F201" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G201" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H201" s="70"/>
       <c r="I201" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="120"/>
-      <c r="B202" s="120"/>
+      <c r="A202" s="133"/>
+      <c r="B202" s="133"/>
       <c r="C202" s="61"/>
-      <c r="D202" s="120"/>
-      <c r="E202" s="132"/>
+      <c r="D202" s="133"/>
+      <c r="E202" s="145"/>
       <c r="F202" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G202" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H202" s="70"/>
       <c r="I202" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="120"/>
-      <c r="B203" s="120"/>
+      <c r="A203" s="133"/>
+      <c r="B203" s="133"/>
       <c r="C203" s="61"/>
-      <c r="D203" s="120"/>
-      <c r="E203" s="132"/>
+      <c r="D203" s="133"/>
+      <c r="E203" s="145"/>
       <c r="F203" s="23" t="s">
         <v>26</v>
       </c>
@@ -7296,864 +7360,944 @@
       </c>
       <c r="H203" s="70"/>
       <c r="I203" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="120"/>
-      <c r="B204" s="120"/>
+      <c r="A204" s="133"/>
+      <c r="B204" s="133"/>
       <c r="C204" s="61"/>
-      <c r="D204" s="120"/>
-      <c r="E204" s="132"/>
+      <c r="D204" s="133"/>
+      <c r="E204" s="145"/>
       <c r="F204" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G204" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H204" s="70"/>
       <c r="I204" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="120"/>
-      <c r="B205" s="120"/>
+      <c r="A205" s="133"/>
+      <c r="B205" s="133"/>
       <c r="C205" s="61"/>
-      <c r="D205" s="120"/>
-      <c r="E205" s="132"/>
+      <c r="D205" s="133"/>
+      <c r="E205" s="145"/>
       <c r="F205" s="71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G205" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H205" s="70"/>
       <c r="I205" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="120"/>
-      <c r="B206" s="120"/>
+      <c r="A206" s="133"/>
+      <c r="B206" s="133"/>
       <c r="C206" s="61"/>
-      <c r="D206" s="120"/>
-      <c r="E206" s="132"/>
+      <c r="D206" s="133"/>
+      <c r="E206" s="145"/>
       <c r="F206" s="23" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="G206" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H206" s="70"/>
       <c r="I206" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A207" s="121"/>
-      <c r="B207" s="121"/>
+      <c r="A207" s="134"/>
+      <c r="B207" s="134"/>
       <c r="C207" s="61"/>
-      <c r="D207" s="121"/>
-      <c r="E207" s="133"/>
+      <c r="D207" s="134"/>
+      <c r="E207" s="146"/>
       <c r="F207" s="23" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G207" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H207" s="70"/>
       <c r="I207" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="130" t="s">
-        <v>276</v>
-      </c>
-      <c r="B208" s="129" t="s">
-        <v>234</v>
+      <c r="A208" s="143" t="s">
+        <v>249</v>
+      </c>
+      <c r="B208" s="142" t="s">
+        <v>352</v>
       </c>
       <c r="C208" s="65"/>
-      <c r="D208" s="128" t="s">
+      <c r="D208" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="E208" s="128" t="s">
-        <v>282</v>
-      </c>
-      <c r="F208" s="99" t="s">
-        <v>216</v>
-      </c>
-      <c r="G208" s="100"/>
+      <c r="E208" s="141" t="s">
+        <v>255</v>
+      </c>
+      <c r="F208" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="G208" s="99"/>
       <c r="H208" s="73"/>
       <c r="I208" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="120"/>
-      <c r="B209" s="120"/>
+      <c r="A209" s="133"/>
+      <c r="B209" s="133"/>
       <c r="C209" s="60"/>
-      <c r="D209" s="120"/>
-      <c r="E209" s="120"/>
+      <c r="D209" s="133"/>
+      <c r="E209" s="133"/>
       <c r="F209" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G209" s="74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H209" s="73"/>
       <c r="I209" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="120"/>
-      <c r="B210" s="120"/>
+      <c r="A210" s="133"/>
+      <c r="B210" s="133"/>
       <c r="C210" s="60"/>
-      <c r="D210" s="120"/>
-      <c r="E210" s="120"/>
+      <c r="D210" s="133"/>
+      <c r="E210" s="133"/>
       <c r="F210" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G210" s="75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H210" s="73"/>
       <c r="I210" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="120"/>
-      <c r="B211" s="120"/>
+      <c r="A211" s="133"/>
+      <c r="B211" s="133"/>
       <c r="C211" s="60"/>
-      <c r="D211" s="120"/>
-      <c r="E211" s="120"/>
+      <c r="D211" s="133"/>
+      <c r="E211" s="133"/>
       <c r="F211" s="34" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="G211" s="72"/>
       <c r="H211" s="73"/>
       <c r="I211" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="120"/>
-      <c r="B212" s="120"/>
+      <c r="A212" s="133"/>
+      <c r="B212" s="133"/>
       <c r="C212" s="60"/>
-      <c r="D212" s="120"/>
-      <c r="E212" s="120"/>
+      <c r="D212" s="133"/>
+      <c r="E212" s="133"/>
       <c r="F212" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G212" s="74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H212" s="73"/>
       <c r="I212" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="120"/>
-      <c r="B213" s="120"/>
+      <c r="A213" s="133"/>
+      <c r="B213" s="133"/>
       <c r="C213" s="60"/>
-      <c r="D213" s="120"/>
-      <c r="E213" s="120"/>
+      <c r="D213" s="133"/>
+      <c r="E213" s="133"/>
       <c r="F213" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G213" s="75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H213" s="73"/>
       <c r="I213" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="120"/>
-      <c r="B214" s="120"/>
+      <c r="A214" s="133"/>
+      <c r="B214" s="133"/>
       <c r="C214" s="60"/>
-      <c r="D214" s="120"/>
-      <c r="E214" s="120"/>
+      <c r="D214" s="133"/>
+      <c r="E214" s="133"/>
       <c r="F214" s="82" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="G214" s="72"/>
       <c r="H214" s="73"/>
       <c r="I214" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="120"/>
-      <c r="B215" s="120"/>
+      <c r="A215" s="133"/>
+      <c r="B215" s="133"/>
       <c r="C215" s="60"/>
-      <c r="D215" s="120"/>
-      <c r="E215" s="120"/>
+      <c r="D215" s="133"/>
+      <c r="E215" s="133"/>
       <c r="F215" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G215" s="74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H215" s="73"/>
       <c r="I215" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="120"/>
-      <c r="B216" s="120"/>
+      <c r="A216" s="133"/>
+      <c r="B216" s="133"/>
       <c r="C216" s="60"/>
-      <c r="D216" s="120"/>
-      <c r="E216" s="120"/>
+      <c r="D216" s="133"/>
+      <c r="E216" s="133"/>
       <c r="F216" s="41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G216" s="76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H216" s="73"/>
       <c r="I216" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="120"/>
-      <c r="B217" s="120"/>
+      <c r="A217" s="133"/>
+      <c r="B217" s="133"/>
       <c r="C217" s="60"/>
-      <c r="D217" s="120"/>
-      <c r="E217" s="120"/>
+      <c r="D217" s="133"/>
+      <c r="E217" s="133"/>
       <c r="F217" s="34" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="G217" s="72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H217" s="73"/>
       <c r="I217" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="120"/>
-      <c r="B218" s="120"/>
+      <c r="A218" s="133"/>
+      <c r="B218" s="133"/>
       <c r="C218" s="60"/>
-      <c r="D218" s="120"/>
-      <c r="E218" s="120"/>
+      <c r="D218" s="133"/>
+      <c r="E218" s="133"/>
       <c r="F218" s="39" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="G218" s="74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H218" s="73"/>
       <c r="I218" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="121"/>
-      <c r="B219" s="121"/>
+      <c r="A219" s="134"/>
+      <c r="B219" s="134"/>
       <c r="C219" s="60"/>
-      <c r="D219" s="121"/>
-      <c r="E219" s="121"/>
+      <c r="D219" s="134"/>
+      <c r="E219" s="134"/>
       <c r="F219" s="41" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="G219" s="76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H219" s="73"/>
       <c r="I219" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="138" t="s">
-        <v>277</v>
-      </c>
-      <c r="B220" s="140" t="s">
-        <v>233</v>
-      </c>
-      <c r="C220" s="142"/>
-      <c r="D220" s="141" t="s">
+      <c r="A220" s="151" t="s">
+        <v>250</v>
+      </c>
+      <c r="B220" s="153" t="s">
+        <v>353</v>
+      </c>
+      <c r="C220" s="155"/>
+      <c r="D220" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="E220" s="145" t="s">
-        <v>282</v>
-      </c>
-      <c r="F220" s="95" t="s">
-        <v>252</v>
+      <c r="E220" s="158" t="s">
+        <v>255</v>
+      </c>
+      <c r="F220" s="94" t="s">
+        <v>226</v>
       </c>
       <c r="G220" s="78" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="H220" s="70"/>
       <c r="I220" s="17"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="139"/>
-      <c r="B221" s="139"/>
-      <c r="C221" s="143"/>
-      <c r="D221" s="139"/>
-      <c r="E221" s="143"/>
-      <c r="F221" s="96" t="s">
-        <v>253</v>
+      <c r="A221" s="152"/>
+      <c r="B221" s="152"/>
+      <c r="C221" s="156"/>
+      <c r="D221" s="152"/>
+      <c r="E221" s="156"/>
+      <c r="F221" s="95" t="s">
+        <v>227</v>
       </c>
       <c r="G221" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H221" s="70"/>
       <c r="I221" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="139"/>
-      <c r="B222" s="139"/>
-      <c r="C222" s="143"/>
-      <c r="D222" s="139"/>
-      <c r="E222" s="143"/>
-      <c r="F222" s="97" t="s">
-        <v>254</v>
+      <c r="A222" s="152"/>
+      <c r="B222" s="152"/>
+      <c r="C222" s="156"/>
+      <c r="D222" s="152"/>
+      <c r="E222" s="156"/>
+      <c r="F222" s="96" t="s">
+        <v>228</v>
       </c>
       <c r="G222" s="83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H222" s="70"/>
       <c r="I222" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="139"/>
-      <c r="B223" s="139"/>
-      <c r="C223" s="144"/>
-      <c r="D223" s="139"/>
-      <c r="E223" s="144"/>
-      <c r="F223" s="98" t="s">
-        <v>255</v>
+      <c r="A223" s="152"/>
+      <c r="B223" s="152"/>
+      <c r="C223" s="157"/>
+      <c r="D223" s="152"/>
+      <c r="E223" s="157"/>
+      <c r="F223" s="97" t="s">
+        <v>229</v>
       </c>
       <c r="G223" s="84" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H223" s="70"/>
       <c r="I223" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="130" t="s">
-        <v>278</v>
-      </c>
-      <c r="B224" s="129" t="s">
-        <v>237</v>
+      <c r="A224" s="143" t="s">
+        <v>251</v>
+      </c>
+      <c r="B224" s="142" t="s">
+        <v>354</v>
       </c>
       <c r="C224" s="65"/>
-      <c r="D224" s="128" t="s">
+      <c r="D224" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="E224" s="128" t="s">
-        <v>282</v>
+      <c r="E224" s="141" t="s">
+        <v>255</v>
       </c>
       <c r="F224" s="39" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="G224" s="74" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H224" s="73"/>
       <c r="I224" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="120"/>
-      <c r="B225" s="120"/>
+      <c r="A225" s="133"/>
+      <c r="B225" s="133"/>
       <c r="C225" s="60"/>
-      <c r="D225" s="120"/>
-      <c r="E225" s="120"/>
+      <c r="D225" s="133"/>
+      <c r="E225" s="133"/>
       <c r="F225" s="39" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G225" s="74" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H225" s="73"/>
       <c r="I225" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="120"/>
-      <c r="B226" s="120"/>
+      <c r="A226" s="133"/>
+      <c r="B226" s="133"/>
       <c r="C226" s="60"/>
-      <c r="D226" s="120"/>
-      <c r="E226" s="120"/>
+      <c r="D226" s="133"/>
+      <c r="E226" s="133"/>
       <c r="F226" s="39" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="G226" s="74" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H226" s="73"/>
       <c r="I226" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="120"/>
-      <c r="B227" s="120"/>
+      <c r="A227" s="133"/>
+      <c r="B227" s="133"/>
       <c r="C227" s="60"/>
-      <c r="D227" s="120"/>
-      <c r="E227" s="120"/>
+      <c r="D227" s="133"/>
+      <c r="E227" s="133"/>
       <c r="F227" s="39" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G227" s="74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H227" s="73"/>
       <c r="I227" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="120"/>
-      <c r="B228" s="120"/>
+      <c r="A228" s="133"/>
+      <c r="B228" s="133"/>
       <c r="C228" s="60"/>
-      <c r="D228" s="120"/>
-      <c r="E228" s="120"/>
+      <c r="D228" s="133"/>
+      <c r="E228" s="133"/>
       <c r="F228" s="39" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="G228" s="74" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H228" s="73"/>
       <c r="I228" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="121"/>
-      <c r="B229" s="121"/>
+      <c r="A229" s="134"/>
+      <c r="B229" s="134"/>
       <c r="C229" s="60"/>
-      <c r="D229" s="121"/>
-      <c r="E229" s="121"/>
+      <c r="D229" s="134"/>
+      <c r="E229" s="134"/>
       <c r="F229" s="43" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="G229" s="75" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H229" s="73"/>
       <c r="I229" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="119" t="s">
-        <v>279</v>
-      </c>
-      <c r="B230" s="122" t="s">
-        <v>243</v>
+      <c r="A230" s="132" t="s">
+        <v>252</v>
+      </c>
+      <c r="B230" s="135" t="s">
+        <v>355</v>
       </c>
       <c r="C230" s="68"/>
-      <c r="D230" s="123" t="s">
+      <c r="D230" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="E230" s="123" t="s">
-        <v>282</v>
+      <c r="E230" s="136" t="s">
+        <v>255</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="G230" s="77" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H230" s="70"/>
       <c r="I230" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A231" s="120"/>
-      <c r="B231" s="120"/>
+      <c r="A231" s="133"/>
+      <c r="B231" s="133"/>
       <c r="C231" s="61"/>
-      <c r="D231" s="120"/>
-      <c r="E231" s="120"/>
+      <c r="D231" s="133"/>
+      <c r="E231" s="133"/>
       <c r="F231" s="18" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="G231" s="77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H231" s="70"/>
       <c r="I231" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="120"/>
-      <c r="B232" s="120"/>
+      <c r="A232" s="133"/>
+      <c r="B232" s="133"/>
       <c r="C232" s="61"/>
-      <c r="D232" s="120"/>
-      <c r="E232" s="120"/>
+      <c r="D232" s="133"/>
+      <c r="E232" s="133"/>
       <c r="F232" s="18" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="G232" s="77" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H232" s="70"/>
       <c r="I232" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="120"/>
-      <c r="B233" s="120"/>
+      <c r="A233" s="133"/>
+      <c r="B233" s="133"/>
       <c r="C233" s="61"/>
-      <c r="D233" s="120"/>
-      <c r="E233" s="120"/>
+      <c r="D233" s="133"/>
+      <c r="E233" s="133"/>
       <c r="F233" s="18" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G233" s="77" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H233" s="70"/>
       <c r="I233" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="120"/>
-      <c r="B234" s="120"/>
+      <c r="A234" s="133"/>
+      <c r="B234" s="133"/>
       <c r="C234" s="61"/>
-      <c r="D234" s="120"/>
-      <c r="E234" s="120"/>
+      <c r="D234" s="133"/>
+      <c r="E234" s="133"/>
       <c r="F234" s="18" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="G234" s="77" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H234" s="70"/>
       <c r="I234" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="121"/>
-      <c r="B235" s="121"/>
+      <c r="A235" s="134"/>
+      <c r="B235" s="134"/>
       <c r="C235" s="61"/>
-      <c r="D235" s="121"/>
-      <c r="E235" s="121"/>
+      <c r="D235" s="134"/>
+      <c r="E235" s="134"/>
       <c r="F235" s="32" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="G235" s="84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H235" s="70"/>
       <c r="I235" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="85" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="B236" s="86" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="C236" s="85"/>
       <c r="D236" s="87" t="s">
         <v>29</v>
       </c>
       <c r="E236" s="88" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="F236" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="G236" s="110" t="s">
-        <v>246</v>
+        <v>222</v>
+      </c>
+      <c r="G236" s="109" t="s">
+        <v>220</v>
       </c>
       <c r="H236" s="73" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="I236" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="163" t="s">
-        <v>281</v>
-      </c>
-      <c r="B237" s="166" t="s">
-        <v>314</v>
-      </c>
-      <c r="C237" s="169"/>
-      <c r="D237" s="169" t="s">
+      <c r="A237" s="169" t="s">
+        <v>254</v>
+      </c>
+      <c r="B237" s="172" t="s">
+        <v>357</v>
+      </c>
+      <c r="C237" s="175"/>
+      <c r="D237" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="E237" s="172" t="s">
+      <c r="E237" s="178" t="s">
+        <v>122</v>
+      </c>
+      <c r="F237" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G237" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="F237" s="89" t="s">
+      <c r="H237" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I237" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="170"/>
+      <c r="B238" s="173"/>
+      <c r="C238" s="176"/>
+      <c r="D238" s="176"/>
+      <c r="E238" s="179"/>
+      <c r="F238" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G237" s="111" t="s">
+      <c r="G238" s="77" t="s">
         <v>126</v>
-      </c>
-      <c r="H237" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I237" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="164"/>
-      <c r="B238" s="167"/>
-      <c r="C238" s="170"/>
-      <c r="D238" s="170"/>
-      <c r="E238" s="173"/>
-      <c r="F238" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="G238" s="77" t="s">
-        <v>128</v>
       </c>
       <c r="H238" s="12"/>
       <c r="I238" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="165"/>
-      <c r="B239" s="168"/>
-      <c r="C239" s="171"/>
-      <c r="D239" s="171"/>
-      <c r="E239" s="174"/>
+      <c r="A239" s="171"/>
+      <c r="B239" s="174"/>
+      <c r="C239" s="177"/>
+      <c r="D239" s="177"/>
+      <c r="E239" s="180"/>
       <c r="F239" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G239" s="112" t="s">
-        <v>250</v>
+        <v>127</v>
+      </c>
+      <c r="G239" s="111" t="s">
+        <v>224</v>
       </c>
       <c r="H239" s="12" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="I239" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="92"/>
-      <c r="B240" s="166" t="s">
-        <v>314</v>
-      </c>
-      <c r="C240" s="93"/>
-      <c r="D240" s="93"/>
-      <c r="E240" s="94" t="s">
-        <v>315</v>
+      <c r="A240" s="91"/>
+      <c r="B240" s="172" t="s">
+        <v>358</v>
+      </c>
+      <c r="C240" s="92"/>
+      <c r="D240" s="92"/>
+      <c r="E240" s="93" t="s">
+        <v>283</v>
       </c>
       <c r="F240" s="23" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="G240" s="23" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="H240" s="70"/>
       <c r="I240" s="17"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="92" t="s">
-        <v>340</v>
-      </c>
-      <c r="B241" s="167"/>
-      <c r="C241" s="93"/>
-      <c r="D241" s="93" t="s">
+      <c r="A241" s="91" t="s">
+        <v>306</v>
+      </c>
+      <c r="B241" s="173"/>
+      <c r="C241" s="92"/>
+      <c r="D241" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="E241" s="94"/>
+      <c r="E241" s="93"/>
       <c r="F241" s="23"/>
       <c r="G241" s="23"/>
       <c r="H241" s="70"/>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="92"/>
-      <c r="B242" s="168"/>
-      <c r="C242" s="91"/>
-      <c r="D242" s="93"/>
-      <c r="E242" s="94"/>
-      <c r="F242" s="23"/>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="91"/>
+      <c r="B242" s="173"/>
+      <c r="C242" s="123"/>
+      <c r="D242" s="92"/>
+      <c r="E242" s="93"/>
+      <c r="F242" s="55"/>
       <c r="G242" s="23"/>
       <c r="H242" s="70"/>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A243" s="150" t="s">
-        <v>341</v>
-      </c>
-      <c r="B243" s="146" t="s">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="129"/>
+      <c r="B243" s="119"/>
+      <c r="C243" s="118"/>
+      <c r="D243" s="118"/>
+      <c r="E243" s="120"/>
+      <c r="F243" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G243" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H243" s="131"/>
+      <c r="I243" s="24"/>
+    </row>
+    <row r="244" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="121"/>
+      <c r="B244" s="122"/>
+      <c r="C244" s="123"/>
+      <c r="D244" s="123"/>
+      <c r="E244" s="124"/>
+      <c r="F244" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="G244" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="H244" s="131"/>
+      <c r="I244" s="24"/>
+    </row>
+    <row r="245" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A245" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="B245" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="C245" s="123"/>
+      <c r="D245" s="123" t="s">
+        <v>29</v>
+      </c>
+      <c r="E245" s="124"/>
+      <c r="F245" s="89"/>
+      <c r="G245" s="89"/>
+      <c r="H245" s="131"/>
+      <c r="I245" s="24"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="121"/>
+      <c r="B246" s="122"/>
+      <c r="C246" s="123"/>
+      <c r="D246" s="123"/>
+      <c r="E246" s="124"/>
+      <c r="F246" s="89"/>
+      <c r="G246" s="89"/>
+      <c r="H246" s="131"/>
+      <c r="I246" s="24"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="121"/>
+      <c r="B247" s="122"/>
+      <c r="C247" s="123"/>
+      <c r="D247" s="123"/>
+      <c r="E247" s="124"/>
+      <c r="F247" s="89"/>
+      <c r="G247" s="89"/>
+      <c r="H247" s="131"/>
+      <c r="I247" s="24"/>
+    </row>
+    <row r="248" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="121"/>
+      <c r="B248" s="122"/>
+      <c r="C248" s="130"/>
+      <c r="D248" s="123"/>
+      <c r="E248" s="124"/>
+      <c r="F248" s="89"/>
+      <c r="G248" s="89"/>
+      <c r="H248" s="131"/>
+      <c r="I248" s="24"/>
+    </row>
+    <row r="249" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="196" t="s">
+        <v>307</v>
+      </c>
+      <c r="B249" s="181" t="s">
+        <v>360</v>
+      </c>
+      <c r="C249" s="38"/>
+      <c r="D249" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="E249" s="201" t="s">
+        <v>162</v>
+      </c>
+      <c r="F249" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="G249" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="H249" s="73"/>
+      <c r="I249" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A250" s="197"/>
+      <c r="B250" s="182"/>
+      <c r="C250" s="38"/>
+      <c r="D250" s="184"/>
+      <c r="E250" s="202"/>
+      <c r="F250" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C243" s="38"/>
-      <c r="D243" s="148" t="s">
+      <c r="G250" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="H250" s="73"/>
+      <c r="I250" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="197"/>
+      <c r="B251" s="182"/>
+      <c r="C251" s="38"/>
+      <c r="D251" s="184"/>
+      <c r="E251" s="202"/>
+      <c r="F251" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G251" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="H251" s="73"/>
+      <c r="I251" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A252" s="197"/>
+      <c r="B252" s="182"/>
+      <c r="C252" s="38"/>
+      <c r="D252" s="184"/>
+      <c r="E252" s="202"/>
+      <c r="F252" s="126" t="s">
+        <v>308</v>
+      </c>
+      <c r="G252" s="126" t="s">
+        <v>310</v>
+      </c>
+      <c r="H252" s="73"/>
+      <c r="I252" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="197"/>
+      <c r="B253" s="182"/>
+      <c r="C253" s="117"/>
+      <c r="D253" s="184"/>
+      <c r="E253" s="202"/>
+      <c r="F253" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="G253" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H253" s="73"/>
+      <c r="I253" s="37"/>
+    </row>
+    <row r="254" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="198"/>
+      <c r="B254" s="199"/>
+      <c r="C254" s="117"/>
+      <c r="D254" s="200"/>
+      <c r="E254" s="203"/>
+      <c r="F254" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G254" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="H254" s="73"/>
+      <c r="I254" s="37"/>
+    </row>
+    <row r="255" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="169" t="s">
+        <v>328</v>
+      </c>
+      <c r="B255" s="172" t="s">
+        <v>361</v>
+      </c>
+      <c r="C255" s="175"/>
+      <c r="D255" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="E243" s="193" t="s">
-        <v>166</v>
-      </c>
-      <c r="F243" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="G243" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="H243" s="73"/>
-      <c r="I243" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="151"/>
-      <c r="B244" s="147"/>
-      <c r="C244" s="38"/>
-      <c r="D244" s="149"/>
-      <c r="E244" s="194"/>
-      <c r="F244" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="G244" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="H244" s="73"/>
-      <c r="I244" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="151"/>
-      <c r="B245" s="147"/>
-      <c r="C245" s="38"/>
-      <c r="D245" s="149"/>
-      <c r="E245" s="194"/>
-      <c r="F245" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G245" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="H245" s="73"/>
-      <c r="I245" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A246" s="151"/>
-      <c r="B246" s="147"/>
-      <c r="C246" s="38"/>
-      <c r="D246" s="149"/>
-      <c r="E246" s="194"/>
-      <c r="F246" s="209" t="s">
-        <v>343</v>
-      </c>
-      <c r="G246" s="209" t="s">
-        <v>345</v>
-      </c>
-      <c r="H246" s="73"/>
-      <c r="I246" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="151"/>
-      <c r="B247" s="147"/>
-      <c r="C247" s="118"/>
-      <c r="D247" s="149"/>
-      <c r="E247" s="194"/>
-      <c r="F247" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="G247" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="H247" s="73"/>
-      <c r="I247" s="37"/>
-    </row>
-    <row r="248" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="210"/>
-      <c r="B248" s="211"/>
-      <c r="C248" s="118"/>
-      <c r="D248" s="212"/>
-      <c r="E248" s="213"/>
-      <c r="F248" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="G248" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="H248" s="73"/>
-      <c r="I248" s="37"/>
-    </row>
-    <row r="249" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="163" t="s">
-        <v>342</v>
-      </c>
-      <c r="B249" s="166" t="s">
+      <c r="E255" s="178" t="s">
+        <v>122</v>
+      </c>
+      <c r="F255" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="G255" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H255" s="12"/>
+      <c r="I255" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="171"/>
+      <c r="B256" s="174"/>
+      <c r="C256" s="177"/>
+      <c r="D256" s="177"/>
+      <c r="E256" s="195"/>
+      <c r="F256" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C249" s="169"/>
-      <c r="D249" s="169" t="s">
-        <v>29</v>
-      </c>
-      <c r="E249" s="172" t="s">
-        <v>124</v>
-      </c>
-      <c r="F249" s="89" t="s">
+      <c r="G256" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="G249" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H249" s="12"/>
-      <c r="I249" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="165"/>
-      <c r="B250" s="168"/>
-      <c r="C250" s="171"/>
-      <c r="D250" s="171"/>
-      <c r="E250" s="175"/>
-      <c r="F250" s="51" t="s">
+      <c r="H256" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="G250" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="H250" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="I250" s="17" t="s">
-        <v>176</v>
+      <c r="I256" s="17" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="150">
     <mergeCell ref="E157:E159"/>
     <mergeCell ref="A141:A144"/>
     <mergeCell ref="B141:B144"/>
@@ -8163,6 +8307,9 @@
     <mergeCell ref="B131:B140"/>
     <mergeCell ref="D131:D140"/>
     <mergeCell ref="E131:E140"/>
+    <mergeCell ref="B145:B156"/>
+    <mergeCell ref="E145:E156"/>
+    <mergeCell ref="A145:A156"/>
     <mergeCell ref="E74:E81"/>
     <mergeCell ref="E92:E98"/>
     <mergeCell ref="D92:D98"/>
@@ -8175,6 +8322,9 @@
     <mergeCell ref="B106:B109"/>
     <mergeCell ref="D106:D109"/>
     <mergeCell ref="E106:E109"/>
+    <mergeCell ref="C82:C91"/>
+    <mergeCell ref="D82:D91"/>
+    <mergeCell ref="E82:E91"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="C58:C61"/>
@@ -8191,11 +8341,26 @@
     <mergeCell ref="B30:B41"/>
     <mergeCell ref="D30:D41"/>
     <mergeCell ref="E30:E41"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="A249:A254"/>
+    <mergeCell ref="B249:B254"/>
+    <mergeCell ref="D249:D254"/>
+    <mergeCell ref="E249:E254"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="D62:D73"/>
+    <mergeCell ref="E62:E73"/>
+    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="B82:B91"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
@@ -8219,11 +8384,6 @@
     <mergeCell ref="C237:C239"/>
     <mergeCell ref="D237:D239"/>
     <mergeCell ref="E237:E239"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="A243:A248"/>
-    <mergeCell ref="B243:B248"/>
-    <mergeCell ref="D243:D248"/>
-    <mergeCell ref="E243:E248"/>
     <mergeCell ref="A230:A235"/>
     <mergeCell ref="B230:B235"/>
     <mergeCell ref="D230:D235"/>
@@ -8235,19 +8395,6 @@
     <mergeCell ref="B42:B50"/>
     <mergeCell ref="C42:C50"/>
     <mergeCell ref="D42:D50"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="D62:D73"/>
-    <mergeCell ref="E62:E73"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="C82:C91"/>
-    <mergeCell ref="D82:D91"/>
-    <mergeCell ref="E82:E91"/>
     <mergeCell ref="B208:B219"/>
     <mergeCell ref="A208:A219"/>
     <mergeCell ref="D208:D219"/>
